--- a/planejamento_pinos.xlsx
+++ b/planejamento_pinos.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\19_UFABC\TG\tg-robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2926F522-CCDB-4540-9EE1-FFF2E4587F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F21E2E9-FEFE-4D91-AB37-AEEE8FEF3217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E453C59D-17C7-4E4F-8AA8-02CEDF431196}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E453C59D-17C7-4E4F-8AA8-02CEDF431196}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
+    <sheet name="old" sheetId="1" r:id="rId1"/>
+    <sheet name="new" sheetId="4" r:id="rId2"/>
+    <sheet name="check" sheetId="5" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha3!$G$11:$M$11</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="71">
   <si>
     <t>G</t>
   </si>
@@ -210,9 +208,6 @@
     <t>TX</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>•</t>
   </si>
   <si>
@@ -233,12 +228,36 @@
   <si>
     <t>┌</t>
   </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t>х</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +291,24 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -706,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -868,6 +905,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD89E67-98DE-4C61-AA01-D679F6D84F11}">
   <dimension ref="A1:DL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM20" sqref="AM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="CR4" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CS4" s="32" t="str">
         <f t="shared" ref="CS4:CX7" si="0">$BG$1</f>
@@ -1663,7 +1734,7 @@
         <v>----</v>
       </c>
       <c r="DJ4" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DL4" s="1"/>
     </row>
@@ -1694,10 +1765,10 @@
         <v>4</v>
       </c>
       <c r="CR5" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CS5" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CT5" s="32" t="str">
         <f t="shared" si="0"/>
@@ -1728,7 +1799,7 @@
         <v>-•-</v>
       </c>
       <c r="DJ5" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL5" s="1"/>
     </row>
@@ -1738,7 +1809,7 @@
       </c>
       <c r="C6" s="22"/>
       <c r="F6" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1773,7 +1844,7 @@
         <v>5</v>
       </c>
       <c r="BX6" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BY6" s="32" t="str">
         <f t="shared" ref="BY6:CE6" si="5">$BG$1</f>
@@ -1804,16 +1875,16 @@
         <v>----</v>
       </c>
       <c r="CF6" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="CR6" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CS6" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CT6" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CU6" s="32" t="str">
         <f t="shared" si="0"/>
@@ -1852,7 +1923,7 @@
         <v>-•-</v>
       </c>
       <c r="DJ6" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL6" s="1"/>
     </row>
@@ -1862,7 +1933,7 @@
       </c>
       <c r="C7" s="22"/>
       <c r="F7" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1890,22 +1961,22 @@
         <v>6</v>
       </c>
       <c r="BX7" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CF7" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CR7" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CS7" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CT7" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CU7" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CV7" s="32" t="str">
         <f t="shared" si="0"/>
@@ -1940,7 +2011,7 @@
         <v>-•-</v>
       </c>
       <c r="DJ7" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL7" s="1"/>
     </row>
@@ -1950,7 +2021,7 @@
       </c>
       <c r="C8" s="22"/>
       <c r="F8" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1966,20 +2037,20 @@
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R8" s="21"/>
       <c r="S8" s="20"/>
       <c r="T8" s="19"/>
       <c r="U8" s="18"/>
       <c r="W8" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X8" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y8" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z8" s="49"/>
       <c r="AA8" s="49"/>
@@ -1987,7 +2058,9 @@
       <c r="AC8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AD8" s="4"/>
+      <c r="AD8" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="9"/>
@@ -2001,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="BX8" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CD8" s="27" t="str">
         <f t="shared" ref="CD8:CD13" si="6">$BG$2</f>
@@ -2009,7 +2082,7 @@
       </c>
       <c r="CE8" s="29"/>
       <c r="CF8" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CJ8" s="45" t="str">
         <f t="shared" ref="CJ8:CJ27" si="7">$BG$2</f>
@@ -2040,16 +2113,16 @@
         <v>-•-</v>
       </c>
       <c r="CR8" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CS8" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CT8" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CU8" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CW8" s="50" t="str">
         <f>$BG$2</f>
@@ -2080,7 +2153,7 @@
         <v>-•-</v>
       </c>
       <c r="DJ8" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL8" s="1"/>
     </row>
@@ -2090,7 +2163,7 @@
       </c>
       <c r="C9" s="22"/>
       <c r="F9" s="76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="77"/>
       <c r="H9" s="77"/>
@@ -2106,20 +2179,20 @@
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="20"/>
       <c r="T9" s="19"/>
       <c r="U9" s="18"/>
       <c r="W9" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X9" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -2127,7 +2200,9 @@
       <c r="AC9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AD9" s="4"/>
+      <c r="AD9" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="9"/>
@@ -2146,14 +2221,14 @@
         <v>8</v>
       </c>
       <c r="BX9" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BZ9" s="28" t="str">
         <f t="shared" ref="BZ9:BZ14" si="10">$BG$2</f>
         <v>-•-</v>
       </c>
       <c r="CB9" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CC9" s="32" t="str">
         <f t="shared" ref="CC9" si="11">$BG$1</f>
@@ -2165,7 +2240,7 @@
       </c>
       <c r="CE9" s="29"/>
       <c r="CF9" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CJ9" s="45" t="str">
         <f t="shared" si="7"/>
@@ -2196,16 +2271,16 @@
         <v>-•-</v>
       </c>
       <c r="CR9" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CS9" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CT9" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CU9" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CW9" s="50" t="str">
         <f>$BG$2</f>
@@ -2236,7 +2311,7 @@
         <v>-•-</v>
       </c>
       <c r="DJ9" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL9" s="1"/>
     </row>
@@ -2261,20 +2336,20 @@
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R10" s="21"/>
       <c r="S10" s="20"/>
       <c r="T10" s="19"/>
       <c r="U10" s="18"/>
       <c r="W10" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y10" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
@@ -2282,11 +2357,15 @@
       <c r="AC10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AD10" s="4"/>
+      <c r="AD10" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="9"/>
-      <c r="AH10" s="4"/>
+      <c r="AH10" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI10" s="5" t="s">
         <v>1</v>
       </c>
@@ -2301,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="BX10" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BY10" s="32" t="str">
         <f t="shared" ref="BY10" si="13">$BG$1</f>
@@ -2312,7 +2391,7 @@
         <v>-•-</v>
       </c>
       <c r="CB10" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CD10" s="45" t="str">
         <f t="shared" si="6"/>
@@ -2323,7 +2402,7 @@
         <v>----</v>
       </c>
       <c r="CF10" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CJ10" s="45" t="str">
         <f t="shared" si="7"/>
@@ -2354,16 +2433,16 @@
         <v>-•-</v>
       </c>
       <c r="CR10" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CS10" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CT10" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CU10" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CW10" s="50" t="str">
         <f>$BG$2</f>
@@ -2390,10 +2469,10 @@
         <v>----</v>
       </c>
       <c r="DG10" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DJ10" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL10" s="1"/>
     </row>
@@ -2423,7 +2502,9 @@
       <c r="AC11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="4"/>
+      <c r="AD11" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
@@ -2449,7 +2530,7 @@
         <v>----</v>
       </c>
       <c r="CB11" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CD11" s="27" t="str">
         <f t="shared" si="6"/>
@@ -2461,16 +2542,16 @@
         <v>-•-</v>
       </c>
       <c r="CR11" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CS11" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CT11" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CU11" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CY11" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2485,13 +2566,13 @@
         <v>----</v>
       </c>
       <c r="DF11" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DG11" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DJ11" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL11" s="1"/>
     </row>
@@ -2517,13 +2598,17 @@
       <c r="AC12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AD12" s="4"/>
+      <c r="AD12" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AH12" s="4"/>
+      <c r="AH12" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI12" s="5" t="s">
         <v>3</v>
       </c>
@@ -2591,25 +2676,25 @@
         <v>----</v>
       </c>
       <c r="CR12" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CS12" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CT12" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CU12" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DF12" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DG12" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DJ12" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL12" s="1"/>
     </row>
@@ -2620,10 +2705,10 @@
       <c r="C13" s="22"/>
       <c r="E13" s="74"/>
       <c r="F13" s="75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R13" s="21"/>
       <c r="S13" s="20"/>
@@ -2639,13 +2724,17 @@
       <c r="AC13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AD13" s="4"/>
+      <c r="AD13" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AH13" s="4"/>
+      <c r="AH13" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI13" s="5" t="s">
         <v>4</v>
       </c>
@@ -2717,13 +2806,13 @@
         <v>----</v>
       </c>
       <c r="CS13" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CT13" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CU13" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DE13" s="54"/>
       <c r="DF13" s="55" t="str">
@@ -2735,7 +2824,7 @@
         <v>-•-</v>
       </c>
       <c r="DJ13" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL13" s="1"/>
     </row>
@@ -2759,11 +2848,15 @@
       <c r="AC14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AD14" s="4"/>
+      <c r="AD14" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
+      <c r="AH14" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2824,13 +2917,13 @@
         <v>----</v>
       </c>
       <c r="CT14" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CU14" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DJ14" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL14" s="1"/>
     </row>
@@ -2853,11 +2946,17 @@
       <c r="AC15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
+      <c r="AD15" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE15" s="83" t="s">
+        <v>65</v>
+      </c>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
+      <c r="AH15" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI15" s="5" t="s">
         <v>6</v>
       </c>
@@ -2918,10 +3017,10 @@
         <v>----</v>
       </c>
       <c r="CU15" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="DJ15" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL15" s="1"/>
     </row>
@@ -2933,19 +3032,25 @@
       <c r="AC16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
+      <c r="AD16" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE16" s="83" t="s">
+        <v>66</v>
+      </c>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
+      <c r="AH16" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AX16" s="70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY16" s="69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD16" s="1"/>
       <c r="BI16" s="2">
@@ -2970,7 +3075,7 @@
         <v>-•-</v>
       </c>
       <c r="DJ16" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL16" s="1"/>
     </row>
@@ -3011,11 +3116,17 @@
       <c r="AC17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
+      <c r="AD17" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE17" s="83" t="s">
+        <v>67</v>
+      </c>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
+      <c r="AH17" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI17" s="5" t="s">
         <v>18</v>
       </c>
@@ -3027,10 +3138,10 @@
         <v>16</v>
       </c>
       <c r="BN17" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BO17" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CD17" s="27" t="str">
         <f t="shared" si="17"/>
@@ -3126,7 +3237,7 @@
         <v>----</v>
       </c>
       <c r="DJ17" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL17" s="1"/>
     </row>
@@ -3162,11 +3273,17 @@
       <c r="AC18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
+      <c r="AD18" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE18" s="83" t="s">
+        <v>68</v>
+      </c>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
+      <c r="AH18" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI18" s="5" t="s">
         <v>17</v>
       </c>
@@ -3178,10 +3295,10 @@
         <v>17</v>
       </c>
       <c r="BN18" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BO18" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CD18" s="27" t="str">
         <f t="shared" si="17"/>
@@ -3257,7 +3374,7 @@
         <v>-•-</v>
       </c>
       <c r="DJ18" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL18" s="1"/>
     </row>
@@ -3267,7 +3384,7 @@
       </c>
       <c r="C19" s="22"/>
       <c r="F19" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -3298,11 +3415,17 @@
       <c r="AC19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
+      <c r="AD19" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE19" s="83" t="s">
+        <v>69</v>
+      </c>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
+      <c r="AH19" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI19" s="5" t="s">
         <v>16</v>
       </c>
@@ -3324,10 +3447,10 @@
         <v>18</v>
       </c>
       <c r="BN19" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO19" s="38" t="s">
         <v>58</v>
-      </c>
-      <c r="BO19" s="38" t="s">
-        <v>59</v>
       </c>
       <c r="BP19" s="32" t="str">
         <f>$BG$1</f>
@@ -3427,7 +3550,7 @@
         <v>-•-</v>
       </c>
       <c r="DJ19" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL19" s="1"/>
     </row>
@@ -3437,7 +3560,7 @@
       </c>
       <c r="C20" s="22"/>
       <c r="F20" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -3468,16 +3591,20 @@
       <c r="AC20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD20" s="4"/>
+      <c r="AD20" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
+      <c r="AH20" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AO20" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP20" s="11"/>
       <c r="AQ20" s="6" t="s">
@@ -3498,10 +3625,10 @@
         <v>19</v>
       </c>
       <c r="BN20" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BO20" s="32" t="str">
-        <f t="shared" ref="BO19:BO20" si="24">$BG$1</f>
+        <f t="shared" ref="BO20" si="24">$BG$1</f>
         <v>----</v>
       </c>
       <c r="BP20" s="33" t="str">
@@ -3610,7 +3737,7 @@
         <v>-•-</v>
       </c>
       <c r="DJ20" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL20" s="1"/>
     </row>
@@ -3620,7 +3747,7 @@
       </c>
       <c r="C21" s="22"/>
       <c r="F21" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -3636,21 +3763,25 @@
       </c>
       <c r="O21" s="12"/>
       <c r="P21" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AD21" s="4"/>
+      <c r="AD21" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
+      <c r="AH21" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AO21" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP21" s="3"/>
       <c r="AQ21" s="6" t="s">
@@ -3666,7 +3797,7 @@
       <c r="AW21" s="10"/>
       <c r="AX21" s="10"/>
       <c r="AY21" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD21" s="1"/>
       <c r="BI21" s="2">
@@ -3738,7 +3869,7 @@
         <v>-•-</v>
       </c>
       <c r="DJ21" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL21" s="1"/>
     </row>
@@ -3748,7 +3879,7 @@
       </c>
       <c r="C22" s="22"/>
       <c r="F22" s="76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="77"/>
       <c r="H22" s="77"/>
@@ -3764,21 +3895,25 @@
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AD22" s="4"/>
+      <c r="AD22" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
+      <c r="AH22" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="AO22" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP22" s="12"/>
       <c r="AQ22" s="6" t="s">
@@ -3794,7 +3929,7 @@
       <c r="AW22" s="10"/>
       <c r="AX22" s="10"/>
       <c r="AY22" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD22" s="1"/>
       <c r="BI22" s="2">
@@ -3866,7 +4001,7 @@
         <v>-•-</v>
       </c>
       <c r="DJ22" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL22" s="1"/>
     </row>
@@ -3891,16 +4026,20 @@
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AD23" s="4"/>
+      <c r="AD23" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
+      <c r="AH23" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI23" s="5" t="s">
         <v>12</v>
       </c>
@@ -3924,7 +4063,7 @@
       <c r="AW23" s="10"/>
       <c r="AX23" s="10"/>
       <c r="AY23" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD23" s="1"/>
       <c r="BI23" s="2">
@@ -4012,10 +4151,10 @@
         <v>----</v>
       </c>
       <c r="DG23" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DJ23" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL23" s="1"/>
     </row>
@@ -4041,11 +4180,15 @@
       <c r="AC24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AD24" s="4"/>
+      <c r="AD24" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
+      <c r="AH24" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI24" s="5" t="s">
         <v>11</v>
       </c>
@@ -4069,7 +4212,7 @@
       <c r="AW24" s="10"/>
       <c r="AX24" s="10"/>
       <c r="AY24" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD24" s="1"/>
       <c r="BI24" s="2">
@@ -4145,13 +4288,13 @@
         <v>----</v>
       </c>
       <c r="DF24" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DG24" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DJ24" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL24" s="1"/>
     </row>
@@ -4166,11 +4309,17 @@
       <c r="AC25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
+      <c r="AD25" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE25" s="83" t="s">
+        <v>70</v>
+      </c>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
+      <c r="AH25" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI25" s="5" t="s">
         <v>10</v>
       </c>
@@ -4241,13 +4390,13 @@
         <v>-•-</v>
       </c>
       <c r="DF25" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DG25" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DJ25" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL25" s="1"/>
     </row>
@@ -4258,21 +4407,25 @@
       <c r="C26" s="22"/>
       <c r="E26" s="74"/>
       <c r="F26" s="78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA26" s="22"/>
       <c r="AB26" s="22"/>
       <c r="AC26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AD26" s="4"/>
+      <c r="AD26" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
+      <c r="AH26" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AI26" s="5" t="s">
         <v>9</v>
       </c>
@@ -4347,7 +4500,7 @@
         <v>----</v>
       </c>
       <c r="CL26" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DE26" s="54"/>
       <c r="DF26" s="55" t="str">
@@ -4359,7 +4512,7 @@
         <v>-•-</v>
       </c>
       <c r="DJ26" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL26" s="1"/>
     </row>
@@ -4372,7 +4525,9 @@
       <c r="AC27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AD27" s="4"/>
+      <c r="AD27" s="81" t="s">
+        <v>63</v>
+      </c>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
@@ -4386,7 +4541,7 @@
         <v>26</v>
       </c>
       <c r="BQ27" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CD27" s="27" t="str">
         <f t="shared" si="17"/>
@@ -4398,10 +4553,10 @@
         <v>-•-</v>
       </c>
       <c r="CL27" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DJ27" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL27" s="1"/>
     </row>
@@ -4417,13 +4572,13 @@
         <v>27</v>
       </c>
       <c r="BQ28" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CL28" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DJ28" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL28" s="1"/>
     </row>
@@ -4482,7 +4637,7 @@
         <v>28</v>
       </c>
       <c r="BQ29" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BR29" s="32" t="str">
         <f t="shared" ref="BR29:DI29" si="29">$BG$1</f>
@@ -4565,7 +4720,7 @@
         <v>----</v>
       </c>
       <c r="CL29" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CM29" s="32" t="str">
         <f t="shared" si="29"/>
@@ -4660,7 +4815,7 @@
         <v>----</v>
       </c>
       <c r="DJ29" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="DL29" s="1"/>
     </row>
@@ -4845,146 +5000,7503 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0C76B8-8589-46BA-9185-2851A785EAA8}">
-  <dimension ref="G11:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698E5223-0E35-4268-AFE1-76626D28E58E}">
+  <dimension ref="A1:DL36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:M19"/>
+    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BR12" sqref="BR12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="11" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
+    <row r="1" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1"/>
+      <c r="BG1" t="str">
+        <f>"----"</f>
+        <v>----</v>
+      </c>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="2">
+        <v>54</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>53</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>52</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>51</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>50</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>49</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>48</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>47</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>46</v>
+      </c>
+      <c r="BS1" s="2">
+        <v>45</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>44</v>
+      </c>
+      <c r="BU1" s="2">
+        <v>43</v>
+      </c>
+      <c r="BV1" s="2">
+        <v>42</v>
+      </c>
+      <c r="BW1" s="2">
+        <v>41</v>
+      </c>
+      <c r="BX1" s="2">
+        <v>40</v>
+      </c>
+      <c r="BY1" s="2">
+        <v>39</v>
+      </c>
+      <c r="BZ1" s="2">
+        <v>38</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>37</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>36</v>
+      </c>
+      <c r="CC1" s="2">
+        <v>35</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>34</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>33</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>32</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>31</v>
+      </c>
+      <c r="CH1" s="2">
+        <v>30</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>29</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>28</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>27</v>
+      </c>
+      <c r="CL1" s="2">
+        <v>26</v>
+      </c>
+      <c r="CM1" s="2">
+        <v>25</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>24</v>
+      </c>
+      <c r="CO1" s="2">
+        <v>23</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>22</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>21</v>
+      </c>
+      <c r="CR1" s="2">
+        <v>20</v>
+      </c>
+      <c r="CS1" s="2">
+        <v>19</v>
+      </c>
+      <c r="CT1" s="2">
+        <v>18</v>
+      </c>
+      <c r="CU1" s="2">
+        <v>17</v>
+      </c>
+      <c r="CV1" s="2">
+        <v>16</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>15</v>
+      </c>
+      <c r="CX1" s="2">
+        <v>14</v>
+      </c>
+      <c r="CY1" s="2">
+        <v>13</v>
+      </c>
+      <c r="CZ1" s="2">
+        <v>12</v>
+      </c>
+      <c r="DA1" s="2">
+        <v>11</v>
+      </c>
+      <c r="DB1" s="2">
+        <v>10</v>
+      </c>
+      <c r="DC1" s="2">
+        <v>9</v>
+      </c>
+      <c r="DD1" s="2">
+        <v>8</v>
+      </c>
+      <c r="DE1" s="2">
+        <v>7</v>
+      </c>
+      <c r="DF1" s="2">
+        <v>6</v>
+      </c>
+      <c r="DG1" s="2">
+        <v>5</v>
+      </c>
+      <c r="DH1" s="2">
+        <v>4</v>
+      </c>
+      <c r="DI1" s="2">
+        <v>3</v>
+      </c>
+      <c r="DJ1" s="2">
+        <v>2</v>
+      </c>
+      <c r="DK1" s="2">
+        <v>1</v>
+      </c>
+      <c r="DL1" s="1"/>
+    </row>
+    <row r="2" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="1"/>
+      <c r="BG2" t="str">
+        <f>"-•-"</f>
+        <v>-•-</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="DL2" s="1"/>
+    </row>
+    <row r="3" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD3" s="1"/>
+      <c r="BI3" s="2">
+        <v>2</v>
+      </c>
+      <c r="DL3" s="1"/>
+    </row>
+    <row r="4" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="BD4" s="1"/>
+      <c r="BI4" s="2">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="CS4" s="32" t="str">
+        <f t="shared" ref="CS4:CX7" si="0">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CT4" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CU4" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CV4" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CW4" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CX4" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CY4" s="34" t="str">
+        <f t="shared" ref="CY4:CY11" si="1">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DD4" s="41" t="str">
+        <f t="shared" ref="DD4:DD11" si="2">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DE4" s="32" t="str">
+        <f t="shared" ref="DE4:DI11" si="3">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="DF4" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DG4" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DH4" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DI4" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DJ4" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="DL4" s="1"/>
+    </row>
+    <row r="5" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="I5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="18"/>
+      <c r="BD5" s="1"/>
+      <c r="BI5" s="2">
+        <v>4</v>
+      </c>
+      <c r="CR5" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CS5" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="CT5" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CU5" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CV5" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CW5" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CX5" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CY5" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD5" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>-•-</v>
+      </c>
+      <c r="DJ5" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL5" s="1"/>
+    </row>
+    <row r="6" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="F6" s="23" t="s">
         <v>56</v>
       </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="18"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="BD6" s="1"/>
+      <c r="BI6" s="2">
+        <v>5</v>
+      </c>
+      <c r="BX6" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="BY6" s="32" t="str">
+        <f t="shared" ref="BY6:CE6" si="4">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="BZ6" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v>----</v>
+      </c>
+      <c r="CA6" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v>----</v>
+      </c>
+      <c r="CB6" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v>----</v>
+      </c>
+      <c r="CC6" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v>----</v>
+      </c>
+      <c r="CD6" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v>----</v>
+      </c>
+      <c r="CE6" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v>----</v>
+      </c>
+      <c r="CF6" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="CR6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CS6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT6" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="CU6" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CV6" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CW6" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CX6" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CY6" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD6" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE6" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DF6" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DG6" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL6" s="1"/>
     </row>
-    <row r="12" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G12">
+    <row r="7" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="F7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="18"/>
+      <c r="AG7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="BD7" s="1"/>
+      <c r="BI7" s="2">
+        <v>6</v>
+      </c>
+      <c r="BX7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CF7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CR7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CS7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU7" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="CV7" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CW7" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CX7" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CY7" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD7" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE7" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DF7" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DG7" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL7" s="1"/>
+    </row>
+    <row r="8" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="F8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="21"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="18"/>
+      <c r="W8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD8" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="9"/>
+      <c r="BD8" s="1"/>
+      <c r="BI8" s="2">
+        <v>7</v>
+      </c>
+      <c r="BX8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD8" s="27" t="str">
+        <f t="shared" ref="CD8:CD27" si="5">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CE8" s="29"/>
+      <c r="CF8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CJ8" s="45" t="str">
+        <f t="shared" ref="CJ8:CJ27" si="6">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CK8" s="32" t="str">
+        <f t="shared" ref="CK8:CX22" si="7">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CL8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN8" s="52" t="str">
+        <f t="shared" ref="CN8:CP10" si="8">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CO8" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CP8" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CR8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CS8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CW8" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CX8" s="32" t="str">
+        <f>$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CY8" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD8" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE8" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DF8" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DG8" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL8" s="1"/>
+    </row>
+    <row r="9" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="C9" s="22"/>
+      <c r="F9" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="21"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="18"/>
+      <c r="W9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD9" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AM9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO9" s="9"/>
+      <c r="BD9" s="1"/>
+      <c r="BI9" s="2">
+        <v>8</v>
+      </c>
+      <c r="BX9" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="BZ9" s="28" t="str">
+        <f t="shared" ref="BZ9:BZ14" si="9">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CB9" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="CC9" s="32" t="str">
+        <f t="shared" ref="CC9" si="10">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CD9" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CJ9" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK9" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL9" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM9" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN9" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CO9" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CP9" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CR9" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CS9" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT9" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU9" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CW9" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CX9" s="32" t="str">
+        <f t="shared" ref="CX9:CX10" si="11">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CY9" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD9" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE9" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DF9" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DG9" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ9" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL9" s="1"/>
+    </row>
+    <row r="10" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="21"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="18"/>
+      <c r="W10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD10" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="22"/>
+      <c r="AM10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="BD10" s="1"/>
+      <c r="BI10" s="2">
+        <v>9</v>
+      </c>
+      <c r="BX10" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="BY10" s="32" t="str">
+        <f t="shared" ref="BY10" si="12">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="BZ10" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>-•-</v>
+      </c>
+      <c r="CB10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD10" s="45" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE10" s="32" t="str">
+        <f t="shared" ref="CE10" si="13">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CF10" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ10" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK10" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL10" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM10" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN10" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CO10" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CP10" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CR10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CS10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CW10" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CX10" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>----</v>
+      </c>
+      <c r="CY10" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD10" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE10" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DF10" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DG10" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="DJ10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL10" s="1"/>
     </row>
-    <row r="13" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G13">
+    <row r="11" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="21"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD11" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD11" s="1"/>
+      <c r="BI11" s="2">
+        <v>10</v>
+      </c>
+      <c r="BZ11" s="43" t="str">
+        <f t="shared" si="9"/>
+        <v>-•-</v>
+      </c>
+      <c r="CA11" s="32" t="str">
+        <f t="shared" ref="CA11:CC13" si="14">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CB11" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="CD11" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE11" s="29"/>
+      <c r="CJ11" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK11" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL11" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM11" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN11" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO11" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP11" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ11" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR11" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="CS11" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT11" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU11" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CY11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD11" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE11" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DF11" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="DG11" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ11" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL11" s="1"/>
+    </row>
+    <row r="12" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="59"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD12" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH12" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD12" s="1"/>
+      <c r="BI12" s="2">
+        <v>11</v>
+      </c>
+      <c r="BZ12" s="43" t="str">
+        <f t="shared" si="9"/>
+        <v>-•-</v>
+      </c>
+      <c r="CA12" s="32" t="str">
+        <f t="shared" si="14"/>
+        <v>----</v>
+      </c>
+      <c r="CB12" s="32" t="str">
+        <f t="shared" si="14"/>
+        <v>----</v>
+      </c>
+      <c r="CC12" s="32" t="str">
+        <f t="shared" si="14"/>
+        <v>----</v>
+      </c>
+      <c r="CD12" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE12" s="29"/>
+      <c r="CJ12" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK12" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL12" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM12" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN12" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO12" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP12" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ12" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR12" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS12" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="CT12" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU12" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DF12" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DG12" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ12" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL12" s="1"/>
+    </row>
+    <row r="13" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" s="21"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD13" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH13" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD13" s="1"/>
+      <c r="BI13" s="2">
+        <v>12</v>
+      </c>
+      <c r="BZ13" s="43" t="str">
+        <f t="shared" si="9"/>
+        <v>-•-</v>
+      </c>
+      <c r="CA13" s="32" t="str">
+        <f t="shared" si="14"/>
+        <v>----</v>
+      </c>
+      <c r="CB13" s="32" t="str">
+        <f t="shared" si="14"/>
+        <v>----</v>
+      </c>
+      <c r="CC13" s="32" t="str">
+        <f t="shared" si="14"/>
+        <v>----</v>
+      </c>
+      <c r="CD13" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE13" s="29"/>
+      <c r="CJ13" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK13" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL13" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM13" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN13" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO13" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP13" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ13" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR13" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS13" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT13" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="CU13" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DE13" s="54"/>
+      <c r="DF13" s="55" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DG13" s="55" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ13" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL13" s="1"/>
+    </row>
+    <row r="14" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="F14" s="74"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD14" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD14" s="1"/>
+      <c r="BI14" s="2">
+        <v>13</v>
+      </c>
+      <c r="BZ14" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v>-•-</v>
+      </c>
+      <c r="CD14" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE14" s="29"/>
+      <c r="CJ14" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK14" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL14" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM14" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN14" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO14" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP14" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ14" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR14" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS14" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT14" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CU14" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="DJ14" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL14" s="1"/>
+    </row>
+    <row r="15" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="AC15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD15" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE15" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY15" s="68"/>
+      <c r="BD15" s="1"/>
+      <c r="BI15" s="2">
+        <v>14</v>
+      </c>
+      <c r="BN15" s="57"/>
+      <c r="BO15" s="57"/>
+      <c r="CD15" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE15" s="29"/>
+      <c r="CJ15" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="DJ15" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL15" s="1"/>
+    </row>
+    <row r="16" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="AC16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD16" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE16" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="AX16" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY16" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD16" s="1"/>
+      <c r="BI16" s="2">
+        <v>15</v>
+      </c>
+      <c r="BM16" s="54"/>
+      <c r="BN16" s="56" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="BO16" s="56" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CD16" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE16" s="29"/>
+      <c r="CJ16" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="DJ16" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL16" s="1"/>
     </row>
-    <row r="14" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="6"/>
+    <row r="17" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="AC17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD17" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE17" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="64"/>
+      <c r="AY17" s="67"/>
+      <c r="BD17" s="1"/>
+      <c r="BI17" s="2">
+        <v>16</v>
+      </c>
+      <c r="BN17" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO17" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD17" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE17" s="29"/>
+      <c r="CJ17" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CN17" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="CO17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CU17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CV17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CW17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CX17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CY17" s="34" t="str">
+        <f t="shared" ref="CY17:CY24" si="15">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DD17" s="41" t="str">
+        <f t="shared" ref="DD17:DD24" si="16">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DE17" s="32" t="str">
+        <f t="shared" ref="DE17:DI24" si="17">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="DF17" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DG17" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DH17" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DI17" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DJ17" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL17" s="1"/>
     </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="6"/>
+    <row r="18" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="I18" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="18"/>
+      <c r="AC18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD18" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE18" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW18" s="58"/>
+      <c r="AX18" s="64"/>
+      <c r="AY18" s="66"/>
+      <c r="BD18" s="1"/>
+      <c r="BI18" s="2">
+        <v>17</v>
+      </c>
+      <c r="BN18" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO18" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD18" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE18" s="29"/>
+      <c r="CJ18" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CN18" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO18" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="CP18" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ18" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR18" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS18" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT18" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CU18" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CV18" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CW18" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CX18" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CY18" s="35" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD18" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DJ18" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL18" s="1"/>
     </row>
-    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="6"/>
+    <row r="19" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="F19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="6"/>
+      <c r="N19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="18"/>
+      <c r="AC19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD19" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE19" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ19" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW19" s="62"/>
+      <c r="AX19" s="63"/>
+      <c r="AY19" s="66"/>
+      <c r="BD19" s="1"/>
+      <c r="BI19" s="2">
+        <v>18</v>
+      </c>
+      <c r="BN19" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO19" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="BP19" s="32" t="str">
+        <f>$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="BQ19" s="34" t="str">
+        <f t="shared" ref="BQ19:BQ26" si="18">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="BV19" s="7" t="str">
+        <f t="shared" ref="BV19:BV26" si="19">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CD19" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE19" s="29"/>
+      <c r="CJ19" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CN19" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO19" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP19" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="CQ19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CU19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CV19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CW19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CX19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CY19" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD19" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE19" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DF19" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DG19" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ19" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL19" s="1"/>
+    </row>
+    <row r="20" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="F20" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD20" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW20" s="61"/>
+      <c r="AX20" s="61"/>
+      <c r="AY20" s="65"/>
+      <c r="BD20" s="1"/>
+      <c r="BI20" s="2">
+        <v>19</v>
+      </c>
+      <c r="BN20" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="BO20" s="32" t="str">
+        <f t="shared" ref="BO20:BP24" si="20">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="BP20" s="33" t="str">
+        <f>$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="BQ20" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV20" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW20" s="32" t="str">
+        <f t="shared" ref="BW20:CC26" si="21">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="BX20" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CD20" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE20" s="29"/>
+      <c r="CJ20" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK20" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL20" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM20" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN20" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="CO20" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP20" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CQ20" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="CR20" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS20" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT20" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CU20" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CV20" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CW20" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CX20" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CY20" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD20" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE20" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DF20" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DG20" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ20" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL20" s="1"/>
+    </row>
+    <row r="21" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="F21" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="12"/>
+      <c r="P21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="V21" s="21"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD21" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD21" s="1"/>
+      <c r="BI21" s="2">
+        <v>20</v>
+      </c>
+      <c r="BN21" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="BO21" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BP21" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BQ21" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV21" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW21" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BX21" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CD21" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE21" s="29"/>
+      <c r="CJ21" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK21" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL21" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM21" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN21" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO21" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="CP21" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CQ21" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CW21" s="31" t="str">
+        <f>$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CX21" s="32" t="str">
+        <f>$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CY21" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD21" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE21" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DF21" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DG21" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ21" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL21" s="1"/>
+    </row>
+    <row r="22" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="F22" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V22" s="21"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD22" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD22" s="1"/>
+      <c r="BI22" s="2">
+        <v>21</v>
+      </c>
+      <c r="BN22" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="BO22" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BP22" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BQ22" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV22" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW22" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BX22" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CD22" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE22" s="29"/>
+      <c r="CJ22" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK22" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL22" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM22" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN22" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO22" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP22" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="CQ22" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CW22" s="53" t="str">
+        <f t="shared" ref="CW22:CX23" si="22">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CX22" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>----</v>
+      </c>
+      <c r="CY22" s="35" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD22" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE22" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DF22" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DG22" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ22" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL22" s="1"/>
+    </row>
+    <row r="23" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD23" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD23" s="1"/>
+      <c r="BI23" s="2">
+        <v>22</v>
+      </c>
+      <c r="BN23" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="BO23" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BP23" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BQ23" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV23" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW23" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BX23" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BY23" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BZ23" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CA23" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CB23" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CC23" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CD23" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE23" s="29"/>
+      <c r="CJ23" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK23" s="32" t="str">
+        <f t="shared" ref="CK23:CP23" si="23">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CL23" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>----</v>
+      </c>
+      <c r="CM23" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>----</v>
+      </c>
+      <c r="CN23" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>----</v>
+      </c>
+      <c r="CO23" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>----</v>
+      </c>
+      <c r="CP23" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>----</v>
+      </c>
+      <c r="CQ23" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="CW23" s="31" t="str">
+        <f t="shared" si="22"/>
+        <v>----</v>
+      </c>
+      <c r="CX23" s="32" t="str">
+        <f t="shared" si="22"/>
+        <v>----</v>
+      </c>
+      <c r="CY23" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD23" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE23" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DF23" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DG23" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="DJ23" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL23" s="1"/>
+    </row>
+    <row r="24" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD24" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="6"/>
+      <c r="AT24" s="6"/>
+      <c r="AU24" s="6"/>
+      <c r="AV24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD24" s="1"/>
+      <c r="BI24" s="2">
+        <v>23</v>
+      </c>
+      <c r="BN24" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="BO24" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BP24" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BQ24" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV24" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW24" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BX24" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BY24" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BZ24" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CA24" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CB24" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CC24" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CD24" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE24" s="29"/>
+      <c r="CJ24" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CY24" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD24" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE24" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DF24" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="DG24" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ24" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL24" s="1"/>
+    </row>
+    <row r="25" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="59"/>
+      <c r="AC25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD25" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE25" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="6"/>
+      <c r="AT25" s="6"/>
+      <c r="AU25" s="6"/>
+      <c r="AV25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD25" s="1"/>
+      <c r="BI25" s="2">
+        <v>24</v>
+      </c>
+      <c r="BQ25" s="30" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV25" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW25" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BX25" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BY25" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BZ25" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CA25" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CB25" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CC25" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CD25" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE25" s="29"/>
+      <c r="CJ25" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="DF25" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DG25" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ25" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL25" s="1"/>
+    </row>
+    <row r="26" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26" s="6"/>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD26" s="1"/>
+      <c r="BI26" s="2">
+        <v>25</v>
+      </c>
+      <c r="BQ26" s="36" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV26" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW26" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BX26" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BY26" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BZ26" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CA26" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CB26" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CC26" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CD26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE26" s="29"/>
+      <c r="CJ26" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK26" s="32" t="str">
+        <f t="shared" ref="CK26" si="24">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CL26" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="DE26" s="54"/>
+      <c r="DF26" s="55" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DG26" s="55" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ26" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL26" s="1"/>
+    </row>
+    <row r="27" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AC27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV27" s="22"/>
+      <c r="BD27" s="1"/>
+      <c r="BI27" s="2">
+        <v>26</v>
+      </c>
+      <c r="BQ27" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD27" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE27" s="29"/>
+      <c r="CJ27" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CL27" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ27" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL27" s="1"/>
+    </row>
+    <row r="28" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="BD28" s="1"/>
+      <c r="BI28" s="2">
+        <v>27</v>
+      </c>
+      <c r="BQ28" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CL28" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ28" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL28" s="1"/>
+    </row>
+    <row r="29" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="22"/>
+      <c r="AQ29" s="22"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="BD29" s="1"/>
+      <c r="BI29" s="2">
+        <v>28</v>
+      </c>
+      <c r="BQ29" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR29" s="32" t="str">
+        <f t="shared" ref="BR29:DI29" si="25">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="BS29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="BT29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="BU29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="BV29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="BW29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="BX29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="BY29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="BZ29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CA29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CB29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CC29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CD29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CE29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CF29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CG29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CH29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CI29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CJ29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CK29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CL29" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="CM29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CN29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CO29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CP29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CQ29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CR29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CS29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CT29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CU29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CV29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CW29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CX29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CY29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="CZ29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="DA29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="DB29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="DC29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="DD29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="DE29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="DF29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="DG29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="DH29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="DI29" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>----</v>
+      </c>
+      <c r="DJ29" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="DL29" s="1"/>
+    </row>
+    <row r="30" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="BD30" s="1"/>
+      <c r="BI30" s="2">
+        <v>29</v>
+      </c>
+      <c r="DL30" s="1"/>
+    </row>
+    <row r="31" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="BD31" s="1"/>
+      <c r="BI31" s="2">
+        <v>30</v>
+      </c>
+      <c r="DL31" s="1"/>
+    </row>
+    <row r="32" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="BD32" s="1"/>
+      <c r="BI32" s="2">
+        <v>31</v>
+      </c>
+      <c r="DL32" s="1"/>
+    </row>
+    <row r="33" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="BD33" s="1"/>
+      <c r="BI33" s="2">
+        <v>32</v>
+      </c>
+      <c r="DL33" s="1"/>
+    </row>
+    <row r="34" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="BD34" s="1"/>
+      <c r="BI34" s="2">
+        <v>33</v>
+      </c>
+      <c r="DL34" s="1"/>
+    </row>
+    <row r="35" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="BD35" s="1"/>
+      <c r="BI35" s="2">
+        <v>34</v>
+      </c>
+      <c r="DL35" s="1"/>
+    </row>
+    <row r="36" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="CJ36" s="1"/>
+      <c r="CK36" s="1"/>
+      <c r="CL36" s="1"/>
+      <c r="CM36" s="1"/>
+      <c r="CN36" s="1"/>
+      <c r="CO36" s="1"/>
+      <c r="CP36" s="1"/>
+      <c r="CQ36" s="1"/>
+      <c r="CR36" s="1"/>
+      <c r="CS36" s="1"/>
+      <c r="CT36" s="1"/>
+      <c r="CU36" s="1"/>
+      <c r="CV36" s="1"/>
+      <c r="CW36" s="1"/>
+      <c r="CX36" s="1"/>
+      <c r="CY36" s="1"/>
+      <c r="CZ36" s="1"/>
+      <c r="DA36" s="1"/>
+      <c r="DB36" s="1"/>
+      <c r="DC36" s="1"/>
+      <c r="DD36" s="1"/>
+      <c r="DE36" s="1"/>
+      <c r="DF36" s="1"/>
+      <c r="DG36" s="1"/>
+      <c r="DH36" s="1"/>
+      <c r="DI36" s="1"/>
+      <c r="DJ36" s="1"/>
+      <c r="DK36" s="1"/>
+      <c r="DL36" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="G11:M11" xr:uid="{BC0C76B8-8589-46BA-9185-2851A785EAA8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G12:M19">
-      <sortCondition descending="1" ref="G11"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B6A2BE-FF53-4375-A65D-48A17D9B1D83}">
+  <dimension ref="A1:DL36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BF5" sqref="BF5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1"/>
+      <c r="BG1" t="str">
+        <f>"----"</f>
+        <v>----</v>
+      </c>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="2">
+        <v>54</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>53</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>52</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>51</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>50</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>49</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>48</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>47</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>46</v>
+      </c>
+      <c r="BS1" s="2">
+        <v>45</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>44</v>
+      </c>
+      <c r="BU1" s="2">
+        <v>43</v>
+      </c>
+      <c r="BV1" s="2">
+        <v>42</v>
+      </c>
+      <c r="BW1" s="2">
+        <v>41</v>
+      </c>
+      <c r="BX1" s="2">
+        <v>40</v>
+      </c>
+      <c r="BY1" s="2">
+        <v>39</v>
+      </c>
+      <c r="BZ1" s="2">
+        <v>38</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>37</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>36</v>
+      </c>
+      <c r="CC1" s="2">
+        <v>35</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>34</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>33</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>32</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>31</v>
+      </c>
+      <c r="CH1" s="2">
+        <v>30</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>29</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>28</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>27</v>
+      </c>
+      <c r="CL1" s="2">
+        <v>26</v>
+      </c>
+      <c r="CM1" s="2">
+        <v>25</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>24</v>
+      </c>
+      <c r="CO1" s="2">
+        <v>23</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>22</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>21</v>
+      </c>
+      <c r="CR1" s="2">
+        <v>20</v>
+      </c>
+      <c r="CS1" s="2">
+        <v>19</v>
+      </c>
+      <c r="CT1" s="2">
+        <v>18</v>
+      </c>
+      <c r="CU1" s="2">
+        <v>17</v>
+      </c>
+      <c r="CV1" s="2">
+        <v>16</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>15</v>
+      </c>
+      <c r="CX1" s="2">
+        <v>14</v>
+      </c>
+      <c r="CY1" s="2">
+        <v>13</v>
+      </c>
+      <c r="CZ1" s="2">
+        <v>12</v>
+      </c>
+      <c r="DA1" s="2">
+        <v>11</v>
+      </c>
+      <c r="DB1" s="2">
+        <v>10</v>
+      </c>
+      <c r="DC1" s="2">
+        <v>9</v>
+      </c>
+      <c r="DD1" s="2">
+        <v>8</v>
+      </c>
+      <c r="DE1" s="2">
+        <v>7</v>
+      </c>
+      <c r="DF1" s="2">
+        <v>6</v>
+      </c>
+      <c r="DG1" s="2">
+        <v>5</v>
+      </c>
+      <c r="DH1" s="2">
+        <v>4</v>
+      </c>
+      <c r="DI1" s="2">
+        <v>3</v>
+      </c>
+      <c r="DJ1" s="2">
+        <v>2</v>
+      </c>
+      <c r="DK1" s="2">
+        <v>1</v>
+      </c>
+      <c r="DL1" s="1"/>
+    </row>
+    <row r="2" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="1"/>
+      <c r="BG2" t="str">
+        <f>"-•-"</f>
+        <v>-•-</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="DL2" s="1"/>
+    </row>
+    <row r="3" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD3" s="1"/>
+      <c r="BI3" s="2">
+        <v>2</v>
+      </c>
+      <c r="DL3" s="1"/>
+    </row>
+    <row r="4" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="BD4" s="1"/>
+      <c r="BI4" s="2">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="CS4" s="84" t="str">
+        <f t="shared" ref="CS4:CX7" si="0">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CT4" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CU4" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CV4" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CW4" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CX4" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CY4" s="34" t="str">
+        <f t="shared" ref="CY4:CY11" si="1">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DD4" s="41" t="str">
+        <f t="shared" ref="DD4:DD11" si="2">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DE4" s="84" t="str">
+        <f t="shared" ref="DE4:DI11" si="3">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="DF4" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DG4" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DH4" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DI4" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DJ4" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="DL4" s="1"/>
+    </row>
+    <row r="5" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="I5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="18"/>
+      <c r="BD5" s="1"/>
+      <c r="BI5" s="2">
+        <v>4</v>
+      </c>
+      <c r="CR5" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CS5" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="CT5" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CU5" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CV5" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CW5" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CX5" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CY5" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD5" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>-•-</v>
+      </c>
+      <c r="DJ5" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL5" s="1"/>
+    </row>
+    <row r="6" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="F6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="18"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="BD6" s="1"/>
+      <c r="BI6" s="2">
+        <v>5</v>
+      </c>
+      <c r="BX6" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="BY6" s="84" t="str">
+        <f t="shared" ref="BY6:CE6" si="4">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="BZ6" s="84" t="str">
+        <f t="shared" si="4"/>
+        <v>----</v>
+      </c>
+      <c r="CA6" s="84" t="str">
+        <f t="shared" si="4"/>
+        <v>----</v>
+      </c>
+      <c r="CB6" s="84" t="str">
+        <f t="shared" si="4"/>
+        <v>----</v>
+      </c>
+      <c r="CC6" s="84" t="str">
+        <f t="shared" si="4"/>
+        <v>----</v>
+      </c>
+      <c r="CD6" s="84" t="str">
+        <f t="shared" si="4"/>
+        <v>----</v>
+      </c>
+      <c r="CE6" s="84" t="str">
+        <f t="shared" si="4"/>
+        <v>----</v>
+      </c>
+      <c r="CF6" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="CR6" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CS6" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT6" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="CU6" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CV6" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CW6" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CX6" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CY6" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD6" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE6" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DF6" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DG6" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ6" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL6" s="1"/>
+    </row>
+    <row r="7" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="F7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="18"/>
+      <c r="AG7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="BD7" s="1"/>
+      <c r="BI7" s="2">
+        <v>6</v>
+      </c>
+      <c r="BX7" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CF7" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CR7" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CS7" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT7" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU7" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="CV7" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CW7" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CX7" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>----</v>
+      </c>
+      <c r="CY7" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD7" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE7" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DF7" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DG7" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ7" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL7" s="1"/>
+    </row>
+    <row r="8" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="F8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="21"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="18"/>
+      <c r="W8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD8" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="9"/>
+      <c r="BD8" s="1"/>
+      <c r="BI8" s="2">
+        <v>7</v>
+      </c>
+      <c r="BX8" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD8" s="27" t="str">
+        <f t="shared" ref="CD8:CD27" si="5">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CE8" s="29"/>
+      <c r="CF8" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CJ8" s="45" t="str">
+        <f t="shared" ref="CJ8:CJ27" si="6">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CK8" s="84" t="str">
+        <f t="shared" ref="CK8:CX23" si="7">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CL8" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM8" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN8" s="52" t="str">
+        <f t="shared" ref="CN8:CP10" si="8">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CO8" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CP8" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CR8" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CS8" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT8" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU8" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CW8" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CX8" s="84" t="str">
+        <f>$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CY8" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD8" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE8" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DF8" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DG8" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ8" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL8" s="1"/>
+    </row>
+    <row r="9" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="F9" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="21"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="18"/>
+      <c r="W9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD9" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AM9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO9" s="9"/>
+      <c r="BD9" s="1"/>
+      <c r="BI9" s="2">
+        <v>8</v>
+      </c>
+      <c r="BX9" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="BZ9" s="28" t="str">
+        <f t="shared" ref="BZ9:BZ14" si="9">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CB9" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="CC9" s="84" t="str">
+        <f t="shared" ref="CC9" si="10">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CD9" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CJ9" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK9" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL9" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM9" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN9" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CO9" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CP9" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CR9" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CS9" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT9" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU9" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CW9" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CX9" s="84" t="str">
+        <f t="shared" ref="CX9:CX10" si="11">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CY9" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD9" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE9" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DF9" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DG9" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ9" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL9" s="1"/>
+    </row>
+    <row r="10" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="21"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="18"/>
+      <c r="W10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD10" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="22"/>
+      <c r="AM10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="BD10" s="1"/>
+      <c r="BI10" s="2">
+        <v>9</v>
+      </c>
+      <c r="BX10" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="BY10" s="84" t="str">
+        <f t="shared" ref="BY10" si="12">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="BZ10" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>-•-</v>
+      </c>
+      <c r="CB10" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD10" s="45" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE10" s="84" t="str">
+        <f t="shared" ref="CE10" si="13">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CF10" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ10" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK10" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL10" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM10" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN10" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CO10" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CP10" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v>-•-</v>
+      </c>
+      <c r="CR10" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CS10" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT10" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU10" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CW10" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CX10" s="84" t="str">
+        <f t="shared" si="11"/>
+        <v>----</v>
+      </c>
+      <c r="CY10" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD10" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE10" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DF10" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DG10" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="DJ10" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL10" s="1"/>
+    </row>
+    <row r="11" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="21"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD11" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD11" s="1"/>
+      <c r="BI11" s="2">
+        <v>10</v>
+      </c>
+      <c r="BZ11" s="43" t="str">
+        <f t="shared" si="9"/>
+        <v>-•-</v>
+      </c>
+      <c r="CA11" s="84" t="str">
+        <f t="shared" ref="CA11:CC13" si="14">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CB11" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="CD11" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE11" s="29"/>
+      <c r="CJ11" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK11" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL11" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM11" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN11" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO11" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP11" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ11" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR11" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="CS11" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT11" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU11" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CY11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD11" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE11" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>----</v>
+      </c>
+      <c r="DF11" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="DG11" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ11" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL11" s="1"/>
+    </row>
+    <row r="12" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="59"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD12" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH12" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD12" s="1"/>
+      <c r="BI12" s="2">
+        <v>11</v>
+      </c>
+      <c r="BZ12" s="43" t="str">
+        <f t="shared" si="9"/>
+        <v>-•-</v>
+      </c>
+      <c r="CA12" s="84" t="str">
+        <f t="shared" si="14"/>
+        <v>----</v>
+      </c>
+      <c r="CB12" s="84" t="str">
+        <f t="shared" si="14"/>
+        <v>----</v>
+      </c>
+      <c r="CC12" s="84" t="str">
+        <f t="shared" si="14"/>
+        <v>----</v>
+      </c>
+      <c r="CD12" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE12" s="29"/>
+      <c r="CJ12" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK12" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL12" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM12" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN12" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO12" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP12" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ12" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR12" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS12" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="CT12" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU12" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DF12" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DG12" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ12" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL12" s="1"/>
+    </row>
+    <row r="13" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" s="21"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD13" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH13" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD13" s="1"/>
+      <c r="BI13" s="2">
+        <v>12</v>
+      </c>
+      <c r="BZ13" s="43" t="str">
+        <f t="shared" si="9"/>
+        <v>-•-</v>
+      </c>
+      <c r="CA13" s="84" t="str">
+        <f t="shared" si="14"/>
+        <v>----</v>
+      </c>
+      <c r="CB13" s="84" t="str">
+        <f t="shared" si="14"/>
+        <v>----</v>
+      </c>
+      <c r="CC13" s="84" t="str">
+        <f t="shared" si="14"/>
+        <v>----</v>
+      </c>
+      <c r="CD13" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE13" s="29"/>
+      <c r="CJ13" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK13" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL13" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM13" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN13" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO13" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP13" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ13" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR13" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS13" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT13" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="CU13" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DE13" s="54"/>
+      <c r="DF13" s="55" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DG13" s="55" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ13" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL13" s="1"/>
+    </row>
+    <row r="14" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="F14" s="74"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD14" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD14" s="1"/>
+      <c r="BI14" s="2">
+        <v>13</v>
+      </c>
+      <c r="BZ14" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v>-•-</v>
+      </c>
+      <c r="CD14" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE14" s="29"/>
+      <c r="CJ14" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK14" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL14" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM14" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN14" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO14" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP14" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ14" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR14" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS14" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT14" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CU14" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="DJ14" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL14" s="1"/>
+    </row>
+    <row r="15" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="AC15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD15" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE15" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY15" s="68"/>
+      <c r="BD15" s="1"/>
+      <c r="BI15" s="2">
+        <v>14</v>
+      </c>
+      <c r="BN15" s="57"/>
+      <c r="BO15" s="57"/>
+      <c r="CD15" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE15" s="29"/>
+      <c r="CJ15" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="DJ15" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL15" s="1"/>
+    </row>
+    <row r="16" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="AC16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD16" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE16" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX16" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY16" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD16" s="1"/>
+      <c r="BI16" s="2">
+        <v>15</v>
+      </c>
+      <c r="BM16" s="54"/>
+      <c r="BN16" s="56" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="BO16" s="56" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CD16" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE16" s="29"/>
+      <c r="CJ16" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="DJ16" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL16" s="1"/>
+    </row>
+    <row r="17" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="AC17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD17" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE17" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="64"/>
+      <c r="AY17" s="67"/>
+      <c r="BD17" s="1"/>
+      <c r="BI17" s="2">
+        <v>16</v>
+      </c>
+      <c r="BN17" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO17" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD17" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE17" s="29"/>
+      <c r="CJ17" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CN17" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="CO17" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP17" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ17" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR17" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS17" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT17" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CU17" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CV17" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CW17" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CX17" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CY17" s="34" t="str">
+        <f t="shared" ref="CY17:CY24" si="15">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DD17" s="41" t="str">
+        <f t="shared" ref="DD17:DD24" si="16">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DE17" s="84" t="str">
+        <f t="shared" ref="DE17:DI24" si="17">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="DF17" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DG17" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DH17" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DI17" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DJ17" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL17" s="1"/>
+    </row>
+    <row r="18" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="I18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="18"/>
+      <c r="AC18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD18" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE18" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW18" s="58"/>
+      <c r="AX18" s="64"/>
+      <c r="AY18" s="66"/>
+      <c r="BD18" s="1"/>
+      <c r="BI18" s="2">
+        <v>17</v>
+      </c>
+      <c r="BN18" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO18" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD18" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE18" s="29"/>
+      <c r="CJ18" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CN18" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO18" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="CP18" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ18" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR18" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS18" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT18" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CU18" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CV18" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CW18" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CX18" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CY18" s="35" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD18" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DJ18" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL18" s="1"/>
+    </row>
+    <row r="19" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="F19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="18"/>
+      <c r="AC19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD19" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE19" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW19" s="62"/>
+      <c r="AX19" s="63"/>
+      <c r="AY19" s="66"/>
+      <c r="BD19" s="1"/>
+      <c r="BI19" s="2">
+        <v>18</v>
+      </c>
+      <c r="BN19" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO19" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="BP19" s="84" t="str">
+        <f>$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="BQ19" s="34" t="str">
+        <f t="shared" ref="BQ19:BQ26" si="18">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="BV19" s="7" t="str">
+        <f t="shared" ref="BV19:BV26" si="19">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CD19" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE19" s="29"/>
+      <c r="CJ19" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CN19" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO19" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP19" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="CQ19" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR19" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS19" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT19" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CU19" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CV19" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CW19" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CX19" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CY19" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD19" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE19" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DF19" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DG19" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ19" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL19" s="1"/>
+    </row>
+    <row r="20" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="F20" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD20" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW20" s="61"/>
+      <c r="AX20" s="61"/>
+      <c r="AY20" s="65"/>
+      <c r="BD20" s="1"/>
+      <c r="BI20" s="2">
+        <v>19</v>
+      </c>
+      <c r="BN20" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="BO20" s="84" t="str">
+        <f t="shared" ref="BO20:BP24" si="20">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="BP20" s="91" t="str">
+        <f>$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="BQ20" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV20" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW20" s="84" t="str">
+        <f t="shared" ref="BW20:CC26" si="21">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="BX20" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CD20" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE20" s="29"/>
+      <c r="CJ20" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK20" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL20" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM20" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN20" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="CO20" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP20" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CQ20" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="CR20" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS20" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT20" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CU20" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CV20" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CW20" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CX20" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CY20" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD20" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE20" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DF20" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DG20" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ20" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL20" s="1"/>
+    </row>
+    <row r="21" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="F21" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="12"/>
+      <c r="P21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="V21" s="21"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD21" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD21" s="1"/>
+      <c r="BI21" s="2">
+        <v>20</v>
+      </c>
+      <c r="BN21" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="BO21" s="84" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BP21" s="84" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BQ21" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV21" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW21" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BX21" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CD21" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE21" s="29"/>
+      <c r="CJ21" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK21" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL21" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM21" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN21" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO21" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="CP21" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CQ21" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CW21" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CX21" s="84" t="str">
+        <f>$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CY21" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD21" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE21" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DF21" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DG21" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ21" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL21" s="1"/>
+    </row>
+    <row r="22" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="F22" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V22" s="21"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD22" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD22" s="1"/>
+      <c r="BI22" s="2">
+        <v>21</v>
+      </c>
+      <c r="BN22" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="BO22" s="84" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BP22" s="84" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BQ22" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV22" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW22" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BX22" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CD22" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE22" s="29"/>
+      <c r="CJ22" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK22" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL22" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM22" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN22" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO22" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP22" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="CQ22" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CW22" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CX22" s="84" t="str">
+        <f t="shared" ref="CX22:CX23" si="22">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CY22" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD22" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE22" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DF22" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DG22" s="51" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ22" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL22" s="1"/>
+    </row>
+    <row r="23" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD23" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD23" s="1"/>
+      <c r="BI23" s="2">
+        <v>22</v>
+      </c>
+      <c r="BN23" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="BO23" s="84" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BP23" s="84" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BQ23" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV23" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW23" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BX23" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BY23" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BZ23" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CA23" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CB23" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CC23" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CD23" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE23" s="29"/>
+      <c r="CJ23" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK23" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL23" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM23" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN23" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO23" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP23" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ23" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="CW23" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CX23" s="84" t="str">
+        <f t="shared" si="22"/>
+        <v>----</v>
+      </c>
+      <c r="CY23" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD23" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE23" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DF23" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DG23" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="DJ23" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL23" s="1"/>
+    </row>
+    <row r="24" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD24" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="6"/>
+      <c r="AT24" s="6"/>
+      <c r="AU24" s="6"/>
+      <c r="AV24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD24" s="1"/>
+      <c r="BI24" s="2">
+        <v>23</v>
+      </c>
+      <c r="BN24" s="50" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="BO24" s="84" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BP24" s="84" t="str">
+        <f t="shared" si="20"/>
+        <v>----</v>
+      </c>
+      <c r="BQ24" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV24" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW24" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BX24" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BY24" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BZ24" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CA24" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CB24" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CC24" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CD24" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE24" s="29"/>
+      <c r="CJ24" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CY24" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD24" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE24" s="84" t="str">
+        <f t="shared" si="17"/>
+        <v>----</v>
+      </c>
+      <c r="DF24" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="DG24" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ24" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL24" s="1"/>
+    </row>
+    <row r="25" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="59"/>
+      <c r="AC25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD25" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE25" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="6"/>
+      <c r="AT25" s="6"/>
+      <c r="AU25" s="6"/>
+      <c r="AV25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD25" s="1"/>
+      <c r="BI25" s="2">
+        <v>24</v>
+      </c>
+      <c r="BQ25" s="30" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV25" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW25" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BX25" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BY25" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BZ25" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CA25" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CB25" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CC25" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CD25" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE25" s="29"/>
+      <c r="CJ25" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="DF25" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DG25" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ25" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL25" s="1"/>
+    </row>
+    <row r="26" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26" s="6"/>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD26" s="1"/>
+      <c r="BI26" s="2">
+        <v>25</v>
+      </c>
+      <c r="BQ26" s="36" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV26" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW26" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BX26" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BY26" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BZ26" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CA26" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CB26" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CC26" s="84" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CD26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE26" s="29"/>
+      <c r="CJ26" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK26" s="84" t="str">
+        <f t="shared" ref="CK26" si="23">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CL26" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="DE26" s="54"/>
+      <c r="DF26" s="55" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DG26" s="55" t="str">
+        <f>$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DJ26" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL26" s="1"/>
+    </row>
+    <row r="27" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AC27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV27" s="22"/>
+      <c r="BD27" s="1"/>
+      <c r="BI27" s="2">
+        <v>26</v>
+      </c>
+      <c r="BQ27" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD27" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE27" s="29"/>
+      <c r="CJ27" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CL27" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ27" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL27" s="1"/>
+    </row>
+    <row r="28" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="BD28" s="1"/>
+      <c r="BI28" s="2">
+        <v>27</v>
+      </c>
+      <c r="BQ28" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="CL28" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ28" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL28" s="1"/>
+    </row>
+    <row r="29" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="22"/>
+      <c r="AQ29" s="22"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="BD29" s="1"/>
+      <c r="BI29" s="2">
+        <v>28</v>
+      </c>
+      <c r="BQ29" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR29" s="84" t="str">
+        <f t="shared" ref="BR29:DI29" si="24">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="BS29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="BT29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="BU29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="BV29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="BW29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="BX29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="BY29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="BZ29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CA29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CB29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CC29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CD29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CE29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CF29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CG29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CH29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CI29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CJ29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CK29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CL29" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="CM29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CN29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CO29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CP29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CQ29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CR29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CS29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CT29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CU29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CV29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CW29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CX29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CY29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="CZ29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="DA29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="DB29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="DC29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="DD29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="DE29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="DF29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="DG29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="DH29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="DI29" s="84" t="str">
+        <f t="shared" si="24"/>
+        <v>----</v>
+      </c>
+      <c r="DJ29" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="DL29" s="1"/>
+    </row>
+    <row r="30" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="BD30" s="1"/>
+      <c r="BI30" s="2">
+        <v>29</v>
+      </c>
+      <c r="DL30" s="1"/>
+    </row>
+    <row r="31" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="BD31" s="1"/>
+      <c r="BI31" s="2">
+        <v>30</v>
+      </c>
+      <c r="DL31" s="1"/>
+    </row>
+    <row r="32" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="BD32" s="1"/>
+      <c r="BI32" s="2">
+        <v>31</v>
+      </c>
+      <c r="DL32" s="1"/>
+    </row>
+    <row r="33" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="BD33" s="1"/>
+      <c r="BI33" s="2">
+        <v>32</v>
+      </c>
+      <c r="DL33" s="1"/>
+    </row>
+    <row r="34" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="BD34" s="1"/>
+      <c r="BI34" s="2">
+        <v>33</v>
+      </c>
+      <c r="DL34" s="1"/>
+    </row>
+    <row r="35" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="BD35" s="1"/>
+      <c r="BI35" s="2">
+        <v>34</v>
+      </c>
+      <c r="DL35" s="1"/>
+    </row>
+    <row r="36" spans="1:116" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="CJ36" s="1"/>
+      <c r="CK36" s="1"/>
+      <c r="CL36" s="1"/>
+      <c r="CM36" s="1"/>
+      <c r="CN36" s="1"/>
+      <c r="CO36" s="1"/>
+      <c r="CP36" s="1"/>
+      <c r="CQ36" s="1"/>
+      <c r="CR36" s="1"/>
+      <c r="CS36" s="1"/>
+      <c r="CT36" s="1"/>
+      <c r="CU36" s="1"/>
+      <c r="CV36" s="1"/>
+      <c r="CW36" s="1"/>
+      <c r="CX36" s="1"/>
+      <c r="CY36" s="1"/>
+      <c r="CZ36" s="1"/>
+      <c r="DA36" s="1"/>
+      <c r="DB36" s="1"/>
+      <c r="DC36" s="1"/>
+      <c r="DD36" s="1"/>
+      <c r="DE36" s="1"/>
+      <c r="DF36" s="1"/>
+      <c r="DG36" s="1"/>
+      <c r="DH36" s="1"/>
+      <c r="DI36" s="1"/>
+      <c r="DJ36" s="1"/>
+      <c r="DK36" s="1"/>
+      <c r="DL36" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/planejamento_pinos.xlsx
+++ b/planejamento_pinos.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\19_UFABC\TG\tg-robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F21E2E9-FEFE-4D91-AB37-AEEE8FEF3217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F71C500-29FB-4C98-AA9F-CDFE1E3C4AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E453C59D-17C7-4E4F-8AA8-02CEDF431196}"/>
+    <workbookView xWindow="-16320" yWindow="-5685" windowWidth="16440" windowHeight="28320" xr2:uid="{E453C59D-17C7-4E4F-8AA8-02CEDF431196}"/>
   </bookViews>
   <sheets>
-    <sheet name="old" sheetId="1" r:id="rId1"/>
-    <sheet name="new" sheetId="4" r:id="rId2"/>
-    <sheet name="check" sheetId="5" r:id="rId3"/>
+    <sheet name="new" sheetId="4" r:id="rId1"/>
+    <sheet name="check" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="71">
   <si>
     <t>G</t>
   </si>
@@ -1277,11 +1276,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD89E67-98DE-4C61-AA01-D679F6D84F11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698E5223-0E35-4268-AFE1-76626D28E58E}">
   <dimension ref="A1:DL36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BR12" sqref="BR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1713,7 @@
         <v>-•-</v>
       </c>
       <c r="DE4" s="32" t="str">
-        <f t="shared" ref="DE4:DH11" si="3">$BG$1</f>
+        <f t="shared" ref="DE4:DI11" si="3">$BG$1</f>
         <v>----</v>
       </c>
       <c r="DF4" s="32" t="str">
@@ -1730,7 +1729,7 @@
         <v>----</v>
       </c>
       <c r="DI4" s="32" t="str">
-        <f t="shared" ref="DI4" si="4">$BG$1</f>
+        <f t="shared" si="3"/>
         <v>----</v>
       </c>
       <c r="DJ4" s="40" t="s">
@@ -1847,31 +1846,31 @@
         <v>62</v>
       </c>
       <c r="BY6" s="32" t="str">
-        <f t="shared" ref="BY6:CE6" si="5">$BG$1</f>
+        <f t="shared" ref="BY6:CE6" si="4">$BG$1</f>
         <v>----</v>
       </c>
       <c r="BZ6" s="32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>----</v>
       </c>
       <c r="CA6" s="32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>----</v>
       </c>
       <c r="CB6" s="32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>----</v>
       </c>
       <c r="CC6" s="32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>----</v>
       </c>
       <c r="CD6" s="32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>----</v>
       </c>
       <c r="CE6" s="32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>----</v>
       </c>
       <c r="CF6" s="40" t="s">
@@ -2077,7 +2076,7 @@
         <v>57</v>
       </c>
       <c r="CD8" s="27" t="str">
-        <f t="shared" ref="CD8:CD13" si="6">$BG$2</f>
+        <f t="shared" ref="CD8:CD27" si="5">$BG$2</f>
         <v>-•-</v>
       </c>
       <c r="CE8" s="29"/>
@@ -2085,31 +2084,31 @@
         <v>57</v>
       </c>
       <c r="CJ8" s="45" t="str">
-        <f t="shared" ref="CJ8:CJ27" si="7">$BG$2</f>
+        <f t="shared" ref="CJ8:CJ27" si="6">$BG$2</f>
         <v>-•-</v>
       </c>
       <c r="CK8" s="32" t="str">
-        <f t="shared" ref="CK8:CM20" si="8">$BG$1</f>
+        <f t="shared" ref="CK8:CX22" si="7">$BG$1</f>
         <v>----</v>
       </c>
       <c r="CL8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN8" s="52" t="str">
+        <f t="shared" ref="CN8:CP10" si="8">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="CO8" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CM8" s="32" t="str">
+        <v>-•-</v>
+      </c>
+      <c r="CP8" s="51" t="str">
         <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CN8" s="52" t="str">
-        <f t="shared" ref="CN8:CP10" si="9">$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="CO8" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v>-•-</v>
-      </c>
-      <c r="CP8" s="51" t="str">
-        <f t="shared" si="9"/>
         <v>-•-</v>
       </c>
       <c r="CR8" s="37" t="s">
@@ -2224,18 +2223,18 @@
         <v>57</v>
       </c>
       <c r="BZ9" s="28" t="str">
-        <f t="shared" ref="BZ9:BZ14" si="10">$BG$2</f>
+        <f t="shared" ref="BZ9:BZ14" si="9">$BG$2</f>
         <v>-•-</v>
       </c>
       <c r="CB9" s="48" t="s">
         <v>62</v>
       </c>
       <c r="CC9" s="32" t="str">
-        <f t="shared" ref="CC9" si="11">$BG$1</f>
+        <f t="shared" ref="CC9" si="10">$BG$1</f>
         <v>----</v>
       </c>
       <c r="CD9" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-•-</v>
       </c>
       <c r="CE9" s="29"/>
@@ -2243,31 +2242,31 @@
         <v>57</v>
       </c>
       <c r="CJ9" s="45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-•-</v>
       </c>
       <c r="CK9" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL9" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM9" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN9" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CL9" s="32" t="str">
+        <v>-•-</v>
+      </c>
+      <c r="CO9" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CM9" s="32" t="str">
+        <v>-•-</v>
+      </c>
+      <c r="CP9" s="51" t="str">
         <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CN9" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v>-•-</v>
-      </c>
-      <c r="CO9" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v>-•-</v>
-      </c>
-      <c r="CP9" s="51" t="str">
-        <f t="shared" si="9"/>
         <v>-•-</v>
       </c>
       <c r="CR9" s="37" t="s">
@@ -2287,7 +2286,7 @@
         <v>-•-</v>
       </c>
       <c r="CX9" s="32" t="str">
-        <f t="shared" ref="CX9:CX10" si="12">$BG$1</f>
+        <f t="shared" ref="CX9:CX10" si="11">$BG$1</f>
         <v>----</v>
       </c>
       <c r="CY9" s="34" t="str">
@@ -2383,53 +2382,53 @@
         <v>58</v>
       </c>
       <c r="BY10" s="32" t="str">
-        <f t="shared" ref="BY10" si="13">$BG$1</f>
+        <f t="shared" ref="BY10" si="12">$BG$1</f>
         <v>----</v>
       </c>
       <c r="BZ10" s="47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-•-</v>
       </c>
       <c r="CB10" s="37" t="s">
         <v>57</v>
       </c>
       <c r="CD10" s="45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-•-</v>
       </c>
       <c r="CE10" s="32" t="str">
-        <f t="shared" ref="CE10" si="14">$BG$1</f>
+        <f t="shared" ref="CE10" si="13">$BG$1</f>
         <v>----</v>
       </c>
       <c r="CF10" s="39" t="s">
         <v>59</v>
       </c>
       <c r="CJ10" s="45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-•-</v>
       </c>
       <c r="CK10" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL10" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM10" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN10" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CL10" s="32" t="str">
+        <v>-•-</v>
+      </c>
+      <c r="CO10" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CM10" s="32" t="str">
+        <v>-•-</v>
+      </c>
+      <c r="CP10" s="51" t="str">
         <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CN10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v>-•-</v>
-      </c>
-      <c r="CO10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v>-•-</v>
-      </c>
-      <c r="CP10" s="51" t="str">
-        <f t="shared" si="9"/>
         <v>-•-</v>
       </c>
       <c r="CR10" s="37" t="s">
@@ -2449,7 +2448,7 @@
         <v>-•-</v>
       </c>
       <c r="CX10" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>----</v>
       </c>
       <c r="CY10" s="34" t="str">
@@ -2499,6 +2498,13 @@
       <c r="S11" s="20"/>
       <c r="T11" s="19"/>
       <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
       <c r="AC11" s="4" t="s">
         <v>33</v>
       </c>
@@ -2522,27 +2528,55 @@
         <v>10</v>
       </c>
       <c r="BZ11" s="43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-•-</v>
       </c>
       <c r="CA11" s="32" t="str">
-        <f t="shared" ref="CA11:CC13" si="15">$BG$1</f>
+        <f t="shared" ref="CA11:CC13" si="14">$BG$1</f>
         <v>----</v>
       </c>
       <c r="CB11" s="39" t="s">
         <v>59</v>
       </c>
       <c r="CD11" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE11" s="29"/>
+      <c r="CJ11" s="45" t="str">
         <f t="shared" si="6"/>
         <v>-•-</v>
       </c>
-      <c r="CE11" s="29"/>
-      <c r="CJ11" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>-•-</v>
-      </c>
-      <c r="CR11" s="37" t="s">
-        <v>57</v>
+      <c r="CK11" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL11" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM11" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN11" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO11" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP11" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ11" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR11" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="CS11" s="37" t="s">
         <v>57</v>
@@ -2587,14 +2621,14 @@
       <c r="R12" s="21"/>
       <c r="S12" s="20"/>
       <c r="T12" s="19"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
       <c r="AC12" s="4" t="s">
         <v>32</v>
       </c>
@@ -2623,63 +2657,64 @@
         <v>11</v>
       </c>
       <c r="BZ12" s="43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-•-</v>
       </c>
       <c r="CA12" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>----</v>
       </c>
       <c r="CB12" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>----</v>
       </c>
       <c r="CC12" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>----</v>
       </c>
       <c r="CD12" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-•-</v>
       </c>
       <c r="CE12" s="29"/>
       <c r="CJ12" s="45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-•-</v>
       </c>
       <c r="CK12" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CL12" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CM12" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CN12" s="32" t="str">
-        <f t="shared" ref="CN12:CT15" si="16">$BG$1</f>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CO12" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CP12" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CQ12" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>----</v>
-      </c>
-      <c r="CR12" s="39" t="s">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR12" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS12" s="39" t="s">
         <v>59</v>
-      </c>
-      <c r="CS12" s="37" t="s">
-        <v>57</v>
       </c>
       <c r="CT12" s="37" t="s">
         <v>57</v>
@@ -2712,15 +2747,15 @@
       </c>
       <c r="R13" s="21"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
       <c r="AC13" s="4" t="s">
         <v>31</v>
       </c>
@@ -2749,67 +2784,68 @@
         <v>12</v>
       </c>
       <c r="BZ13" s="43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-•-</v>
       </c>
       <c r="CA13" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>----</v>
       </c>
       <c r="CB13" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>----</v>
       </c>
       <c r="CC13" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>----</v>
       </c>
       <c r="CD13" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-•-</v>
       </c>
       <c r="CE13" s="29"/>
       <c r="CJ13" s="45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-•-</v>
       </c>
       <c r="CK13" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CL13" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CM13" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CN13" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CO13" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CP13" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CQ13" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CR13" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>----</v>
-      </c>
-      <c r="CS13" s="39" t="s">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS13" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT13" s="39" t="s">
         <v>59</v>
-      </c>
-      <c r="CT13" s="37" t="s">
-        <v>57</v>
       </c>
       <c r="CU13" s="37" t="s">
         <v>57</v>
@@ -2835,16 +2871,16 @@
       <c r="C14" s="22"/>
       <c r="F14" s="74"/>
       <c r="R14" s="21"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
       <c r="AC14" s="4" t="s">
         <v>30</v>
       </c>
@@ -2868,59 +2904,60 @@
         <v>13</v>
       </c>
       <c r="BZ14" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-•-</v>
       </c>
       <c r="CD14" s="27" t="str">
-        <f t="shared" ref="CD14:CD27" si="17">$BG$2</f>
+        <f t="shared" si="5"/>
         <v>-•-</v>
       </c>
       <c r="CE14" s="29"/>
       <c r="CJ14" s="45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-•-</v>
       </c>
       <c r="CK14" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CL14" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CM14" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CN14" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CO14" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CP14" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CQ14" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CR14" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CS14" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>----</v>
-      </c>
-      <c r="CT14" s="39" t="s">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT14" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CU14" s="39" t="s">
         <v>59</v>
-      </c>
-      <c r="CU14" s="37" t="s">
-        <v>57</v>
       </c>
       <c r="DJ14" s="37" t="s">
         <v>57</v>
@@ -2932,17 +2969,6 @@
         <v>14</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
       <c r="AC15" s="4" t="s">
         <v>29</v>
       </c>
@@ -2968,56 +2994,13 @@
       <c r="BN15" s="57"/>
       <c r="BO15" s="57"/>
       <c r="CD15" s="27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>-•-</v>
       </c>
       <c r="CE15" s="29"/>
-      <c r="CJ15" s="45" t="str">
-        <f t="shared" si="7"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK15" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CL15" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CM15" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CN15" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>----</v>
-      </c>
-      <c r="CO15" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>----</v>
-      </c>
-      <c r="CP15" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>----</v>
-      </c>
-      <c r="CQ15" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>----</v>
-      </c>
-      <c r="CR15" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>----</v>
-      </c>
-      <c r="CS15" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>----</v>
-      </c>
-      <c r="CT15" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>----</v>
-      </c>
-      <c r="CU15" s="39" t="s">
-        <v>59</v>
+      <c r="CJ15" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
       </c>
       <c r="DJ15" s="37" t="s">
         <v>57</v>
@@ -3066,12 +3049,12 @@
         <v>-•-</v>
       </c>
       <c r="CD16" s="27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>-•-</v>
       </c>
       <c r="CE16" s="29"/>
       <c r="CJ16" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-•-</v>
       </c>
       <c r="DJ16" s="37" t="s">
@@ -3110,9 +3093,6 @@
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
       <c r="AC17" s="4" t="s">
         <v>27</v>
       </c>
@@ -3144,96 +3124,83 @@
         <v>57</v>
       </c>
       <c r="CD17" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE17" s="29"/>
+      <c r="CJ17" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CN17" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="CO17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CQ17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CU17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CV17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CW17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CX17" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CY17" s="34" t="str">
+        <f t="shared" ref="CY17:CY24" si="15">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DD17" s="41" t="str">
+        <f t="shared" ref="DD17:DD24" si="16">$BG$2</f>
+        <v>-•-</v>
+      </c>
+      <c r="DE17" s="32" t="str">
+        <f t="shared" ref="DE17:DI24" si="17">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="DF17" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE17" s="29"/>
-      <c r="CJ17" s="45" t="str">
-        <f t="shared" si="7"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK17" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CL17" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CM17" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CN17" s="32" t="str">
-        <f t="shared" ref="CN17:CX20" si="18">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="CO17" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CP17" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CQ17" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CR17" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CS17" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CT17" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CU17" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CV17" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CW17" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CX17" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CY17" s="34" t="str">
-        <f t="shared" ref="CY17:CY24" si="19">$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DD17" s="41" t="str">
-        <f t="shared" ref="DD17:DD24" si="20">$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DE17" s="32" t="str">
-        <f t="shared" ref="DE17:DI24" si="21">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="DF17" s="32" t="str">
-        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="DG17" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>----</v>
       </c>
       <c r="DH17" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>----</v>
       </c>
       <c r="DI17" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>----</v>
       </c>
       <c r="DJ17" s="46" t="s">
@@ -3266,10 +3233,7 @@
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
+      <c r="Y18" s="18"/>
       <c r="AC18" s="4" t="s">
         <v>26</v>
       </c>
@@ -3301,76 +3265,62 @@
         <v>57</v>
       </c>
       <c r="CD18" s="27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>-•-</v>
       </c>
       <c r="CE18" s="29"/>
-      <c r="CJ18" s="45" t="str">
-        <f t="shared" si="7"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK18" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CL18" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CM18" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CN18" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CO18" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
+      <c r="CJ18" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CN18" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO18" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="CP18" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CQ18" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CR18" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CS18" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CT18" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CU18" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CV18" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CW18" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CX18" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CY18" s="35" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>-•-</v>
       </c>
       <c r="DD18" s="8" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>-•-</v>
       </c>
       <c r="DJ18" s="37" t="s">
@@ -3407,11 +3357,8 @@
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="18"/>
       <c r="AC19" s="4" t="s">
         <v>25</v>
       </c>
@@ -3457,92 +3404,77 @@
         <v>----</v>
       </c>
       <c r="BQ19" s="34" t="str">
-        <f t="shared" ref="BQ19:BQ26" si="22">$BG$2</f>
+        <f t="shared" ref="BQ19:BQ26" si="18">$BG$2</f>
         <v>-•-</v>
       </c>
       <c r="BV19" s="7" t="str">
-        <f t="shared" ref="BV19:BV26" si="23">$BG$2</f>
+        <f t="shared" ref="BV19:BV26" si="19">$BG$2</f>
         <v>-•-</v>
       </c>
       <c r="CD19" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE19" s="29"/>
+      <c r="CJ19" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CN19" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO19" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP19" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="CQ19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CR19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CS19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CT19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CU19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CV19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CW19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CX19" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CY19" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD19" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE19" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE19" s="29"/>
-      <c r="CJ19" s="45" t="str">
-        <f t="shared" si="7"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK19" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CL19" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CM19" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CN19" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CO19" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CP19" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CQ19" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CR19" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CS19" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CT19" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CU19" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CV19" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CW19" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CX19" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CY19" s="34" t="str">
-        <f t="shared" si="19"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD19" s="41" t="str">
-        <f t="shared" si="20"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE19" s="32" t="str">
-        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="DF19" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>----</v>
       </c>
       <c r="DG19" s="51" t="str">
@@ -3582,12 +3514,12 @@
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
       <c r="AC20" s="4" t="s">
         <v>24</v>
       </c>
@@ -3628,7 +3560,7 @@
         <v>58</v>
       </c>
       <c r="BO20" s="32" t="str">
-        <f t="shared" ref="BO20" si="24">$BG$1</f>
+        <f t="shared" ref="BO20:BP24" si="20">$BG$1</f>
         <v>----</v>
       </c>
       <c r="BP20" s="33" t="str">
@@ -3636,15 +3568,15 @@
         <v>----</v>
       </c>
       <c r="BQ20" s="35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-•-</v>
       </c>
       <c r="BV20" s="41" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>-•-</v>
       </c>
       <c r="BW20" s="32" t="str">
-        <f t="shared" ref="BW20:CC26" si="25">$BG$1</f>
+        <f t="shared" ref="BW20:CC26" si="21">$BG$1</f>
         <v>----</v>
       </c>
       <c r="BX20" s="51" t="str">
@@ -3652,84 +3584,80 @@
         <v>-•-</v>
       </c>
       <c r="CD20" s="27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>-•-</v>
       </c>
       <c r="CE20" s="29"/>
       <c r="CJ20" s="45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-•-</v>
       </c>
       <c r="CK20" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CL20" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CM20" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>----</v>
-      </c>
-      <c r="CN20" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CO20" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CP20" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
-      </c>
-      <c r="CQ20" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>----</v>
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN20" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="CO20" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP20" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CQ20" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="CR20" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CS20" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CT20" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CU20" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CV20" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CW20" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CX20" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>----</v>
       </c>
       <c r="CY20" s="34" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>-•-</v>
       </c>
       <c r="DD20" s="41" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>-•-</v>
       </c>
       <c r="DE20" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>----</v>
       </c>
       <c r="DF20" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>----</v>
       </c>
       <c r="DG20" s="51" t="str">
@@ -3765,6 +3693,13 @@
       <c r="P21" s="13" t="s">
         <v>56</v>
       </c>
+      <c r="V21" s="21"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
       <c r="AC21" s="4" t="s">
         <v>23</v>
       </c>
@@ -3808,23 +3743,23 @@
         <v>-•-</v>
       </c>
       <c r="BO21" s="32" t="str">
-        <f t="shared" ref="BO21:BP24" si="26">$BG$1</f>
+        <f t="shared" si="20"/>
         <v>----</v>
       </c>
       <c r="BP21" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>----</v>
       </c>
       <c r="BQ21" s="34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-•-</v>
       </c>
       <c r="BV21" s="41" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>-•-</v>
       </c>
       <c r="BW21" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="BX21" s="51" t="str">
@@ -3832,13 +3767,38 @@
         <v>-•-</v>
       </c>
       <c r="CD21" s="27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>-•-</v>
       </c>
       <c r="CE21" s="29"/>
-      <c r="CJ21" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>-•-</v>
+      <c r="CJ21" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK21" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL21" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM21" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN21" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO21" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="CP21" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CQ21" s="37" t="s">
+        <v>57</v>
       </c>
       <c r="CW21" s="31" t="str">
         <f>$BG$1</f>
@@ -3849,19 +3809,19 @@
         <v>----</v>
       </c>
       <c r="CY21" s="34" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>-•-</v>
       </c>
       <c r="DD21" s="41" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>-•-</v>
       </c>
       <c r="DE21" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>----</v>
       </c>
       <c r="DF21" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>----</v>
       </c>
       <c r="DG21" s="51" t="str">
@@ -3897,6 +3857,13 @@
       <c r="P22" s="14" t="s">
         <v>56</v>
       </c>
+      <c r="V22" s="21"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
       <c r="AC22" s="4" t="s">
         <v>22</v>
       </c>
@@ -3940,23 +3907,23 @@
         <v>-•-</v>
       </c>
       <c r="BO22" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>----</v>
       </c>
       <c r="BP22" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>----</v>
       </c>
       <c r="BQ22" s="34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-•-</v>
       </c>
       <c r="BV22" s="41" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>-•-</v>
       </c>
       <c r="BW22" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="BX22" s="51" t="str">
@@ -3964,36 +3931,62 @@
         <v>-•-</v>
       </c>
       <c r="CD22" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE22" s="29"/>
+      <c r="CJ22" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK22" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CL22" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CM22" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CN22" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CO22" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>----</v>
+      </c>
+      <c r="CP22" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="CQ22" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="CW22" s="53" t="str">
+        <f t="shared" ref="CW22:CX23" si="22">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CX22" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>----</v>
+      </c>
+      <c r="CY22" s="35" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD22" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE22" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE22" s="29"/>
-      <c r="CJ22" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>-•-</v>
-      </c>
-      <c r="CW22" s="53" t="str">
-        <f t="shared" ref="CW22:CX23" si="27">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="CX22" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>----</v>
-      </c>
-      <c r="CY22" s="35" t="str">
-        <f t="shared" si="19"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD22" s="41" t="str">
-        <f t="shared" si="20"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE22" s="32" t="str">
-        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="DF22" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>----</v>
       </c>
       <c r="DG22" s="51" t="str">
@@ -4028,6 +4021,13 @@
       <c r="P23" s="15" t="s">
         <v>56</v>
       </c>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
       <c r="AC23" s="4" t="s">
         <v>21</v>
       </c>
@@ -4074,80 +4074,107 @@
         <v>-•-</v>
       </c>
       <c r="BO23" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>----</v>
       </c>
       <c r="BP23" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>----</v>
       </c>
       <c r="BQ23" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>-•-</v>
+      </c>
+      <c r="BV23" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v>-•-</v>
+      </c>
+      <c r="BW23" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BX23" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BY23" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="BZ23" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CA23" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CB23" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CC23" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>----</v>
+      </c>
+      <c r="CD23" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>-•-</v>
+      </c>
+      <c r="CE23" s="29"/>
+      <c r="CJ23" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>-•-</v>
+      </c>
+      <c r="CK23" s="32" t="str">
+        <f t="shared" ref="CK23:CP23" si="23">$BG$1</f>
+        <v>----</v>
+      </c>
+      <c r="CL23" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>----</v>
+      </c>
+      <c r="CM23" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>----</v>
+      </c>
+      <c r="CN23" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>----</v>
+      </c>
+      <c r="CO23" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>----</v>
+      </c>
+      <c r="CP23" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>----</v>
+      </c>
+      <c r="CQ23" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="CW23" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>-•-</v>
-      </c>
-      <c r="BV23" s="41" t="str">
-        <f t="shared" si="23"/>
-        <v>-•-</v>
-      </c>
-      <c r="BW23" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="BX23" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="BY23" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="BZ23" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CA23" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CB23" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CC23" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CD23" s="42" t="str">
+        <v>----</v>
+      </c>
+      <c r="CX23" s="32" t="str">
+        <f t="shared" si="22"/>
+        <v>----</v>
+      </c>
+      <c r="CY23" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>-•-</v>
+      </c>
+      <c r="DD23" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>-•-</v>
+      </c>
+      <c r="DE23" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE23" s="29"/>
-      <c r="CJ23" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>-•-</v>
-      </c>
-      <c r="CW23" s="31" t="str">
-        <f t="shared" si="27"/>
-        <v>----</v>
-      </c>
-      <c r="CX23" s="32" t="str">
-        <f t="shared" si="27"/>
-        <v>----</v>
-      </c>
-      <c r="CY23" s="34" t="str">
-        <f t="shared" si="19"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD23" s="41" t="str">
-        <f t="shared" si="20"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE23" s="32" t="str">
-        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="DF23" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>----</v>
       </c>
       <c r="DG23" s="40" t="s">
@@ -4223,68 +4250,68 @@
         <v>-•-</v>
       </c>
       <c r="BO24" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>----</v>
       </c>
       <c r="BP24" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>----</v>
       </c>
       <c r="BQ24" s="34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-•-</v>
       </c>
       <c r="BV24" s="41" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>-•-</v>
       </c>
       <c r="BW24" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="BX24" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="BY24" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="BZ24" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="CA24" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="CB24" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="CC24" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="CD24" s="42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>-•-</v>
       </c>
       <c r="CE24" s="29"/>
       <c r="CJ24" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-•-</v>
       </c>
       <c r="CY24" s="8" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>-•-</v>
       </c>
       <c r="DD24" s="41" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>-•-</v>
       </c>
       <c r="DE24" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>----</v>
       </c>
       <c r="DF24" s="40" t="s">
@@ -4345,48 +4372,48 @@
         <v>24</v>
       </c>
       <c r="BQ25" s="30" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-•-</v>
       </c>
       <c r="BV25" s="41" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>-•-</v>
       </c>
       <c r="BW25" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="BX25" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="BY25" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="BZ25" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="CA25" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="CB25" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="CC25" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="CD25" s="42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>-•-</v>
       </c>
       <c r="CE25" s="29"/>
       <c r="CJ25" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-•-</v>
       </c>
       <c r="DF25" s="37" t="s">
@@ -4451,52 +4478,52 @@
         <v>25</v>
       </c>
       <c r="BQ26" s="36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-•-</v>
       </c>
       <c r="BV26" s="41" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>-•-</v>
       </c>
       <c r="BW26" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="BX26" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="BY26" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="BZ26" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="CA26" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="CB26" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="CC26" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>----</v>
       </c>
       <c r="CD26" s="42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>-•-</v>
       </c>
       <c r="CE26" s="29"/>
       <c r="CJ26" s="45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-•-</v>
       </c>
       <c r="CK26" s="32" t="str">
-        <f t="shared" ref="CK26" si="28">$BG$1</f>
+        <f t="shared" ref="CK26" si="24">$BG$1</f>
         <v>----</v>
       </c>
       <c r="CL26" s="40" t="s">
@@ -4544,12 +4571,12 @@
         <v>57</v>
       </c>
       <c r="CD27" s="27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>-•-</v>
       </c>
       <c r="CE27" s="29"/>
       <c r="CJ27" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-•-</v>
       </c>
       <c r="CL27" s="37" t="s">
@@ -4640,178 +4667,178 @@
         <v>58</v>
       </c>
       <c r="BR29" s="32" t="str">
-        <f t="shared" ref="BR29:DI29" si="29">$BG$1</f>
+        <f t="shared" ref="BR29:DI29" si="25">$BG$1</f>
         <v>----</v>
       </c>
       <c r="BS29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="BT29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="BU29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="BV29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="BW29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="BX29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="BY29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="BZ29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CA29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CB29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CC29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CD29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CE29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CF29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CG29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CH29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CI29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CJ29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CK29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CL29" s="44" t="s">
         <v>61</v>
       </c>
       <c r="CM29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CN29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CO29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CP29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CQ29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CR29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CS29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CT29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CU29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CV29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CW29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CX29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CY29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="CZ29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="DA29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="DB29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="DC29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="DD29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="DE29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="DF29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="DG29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="DH29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="DI29" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>----</v>
       </c>
       <c r="DJ29" s="39" t="s">
@@ -5000,3761 +5027,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698E5223-0E35-4268-AFE1-76626D28E58E}">
-  <dimension ref="A1:DL36"/>
-  <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BR12" sqref="BR12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="2">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="2">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="2">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="2">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="2">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="2">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="2">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="2">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="2">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="2">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="2">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="2">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="2">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1"/>
-      <c r="BG1" t="str">
-        <f>"----"</f>
-        <v>----</v>
-      </c>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="2">
-        <v>54</v>
-      </c>
-      <c r="BK1" s="2">
-        <v>53</v>
-      </c>
-      <c r="BL1" s="2">
-        <v>52</v>
-      </c>
-      <c r="BM1" s="2">
-        <v>51</v>
-      </c>
-      <c r="BN1" s="2">
-        <v>50</v>
-      </c>
-      <c r="BO1" s="2">
-        <v>49</v>
-      </c>
-      <c r="BP1" s="2">
-        <v>48</v>
-      </c>
-      <c r="BQ1" s="2">
-        <v>47</v>
-      </c>
-      <c r="BR1" s="2">
-        <v>46</v>
-      </c>
-      <c r="BS1" s="2">
-        <v>45</v>
-      </c>
-      <c r="BT1" s="2">
-        <v>44</v>
-      </c>
-      <c r="BU1" s="2">
-        <v>43</v>
-      </c>
-      <c r="BV1" s="2">
-        <v>42</v>
-      </c>
-      <c r="BW1" s="2">
-        <v>41</v>
-      </c>
-      <c r="BX1" s="2">
-        <v>40</v>
-      </c>
-      <c r="BY1" s="2">
-        <v>39</v>
-      </c>
-      <c r="BZ1" s="2">
-        <v>38</v>
-      </c>
-      <c r="CA1" s="2">
-        <v>37</v>
-      </c>
-      <c r="CB1" s="2">
-        <v>36</v>
-      </c>
-      <c r="CC1" s="2">
-        <v>35</v>
-      </c>
-      <c r="CD1" s="2">
-        <v>34</v>
-      </c>
-      <c r="CE1" s="2">
-        <v>33</v>
-      </c>
-      <c r="CF1" s="2">
-        <v>32</v>
-      </c>
-      <c r="CG1" s="2">
-        <v>31</v>
-      </c>
-      <c r="CH1" s="2">
-        <v>30</v>
-      </c>
-      <c r="CI1" s="2">
-        <v>29</v>
-      </c>
-      <c r="CJ1" s="2">
-        <v>28</v>
-      </c>
-      <c r="CK1" s="2">
-        <v>27</v>
-      </c>
-      <c r="CL1" s="2">
-        <v>26</v>
-      </c>
-      <c r="CM1" s="2">
-        <v>25</v>
-      </c>
-      <c r="CN1" s="2">
-        <v>24</v>
-      </c>
-      <c r="CO1" s="2">
-        <v>23</v>
-      </c>
-      <c r="CP1" s="2">
-        <v>22</v>
-      </c>
-      <c r="CQ1" s="2">
-        <v>21</v>
-      </c>
-      <c r="CR1" s="2">
-        <v>20</v>
-      </c>
-      <c r="CS1" s="2">
-        <v>19</v>
-      </c>
-      <c r="CT1" s="2">
-        <v>18</v>
-      </c>
-      <c r="CU1" s="2">
-        <v>17</v>
-      </c>
-      <c r="CV1" s="2">
-        <v>16</v>
-      </c>
-      <c r="CW1" s="2">
-        <v>15</v>
-      </c>
-      <c r="CX1" s="2">
-        <v>14</v>
-      </c>
-      <c r="CY1" s="2">
-        <v>13</v>
-      </c>
-      <c r="CZ1" s="2">
-        <v>12</v>
-      </c>
-      <c r="DA1" s="2">
-        <v>11</v>
-      </c>
-      <c r="DB1" s="2">
-        <v>10</v>
-      </c>
-      <c r="DC1" s="2">
-        <v>9</v>
-      </c>
-      <c r="DD1" s="2">
-        <v>8</v>
-      </c>
-      <c r="DE1" s="2">
-        <v>7</v>
-      </c>
-      <c r="DF1" s="2">
-        <v>6</v>
-      </c>
-      <c r="DG1" s="2">
-        <v>5</v>
-      </c>
-      <c r="DH1" s="2">
-        <v>4</v>
-      </c>
-      <c r="DI1" s="2">
-        <v>3</v>
-      </c>
-      <c r="DJ1" s="2">
-        <v>2</v>
-      </c>
-      <c r="DK1" s="2">
-        <v>1</v>
-      </c>
-      <c r="DL1" s="1"/>
-    </row>
-    <row r="2" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD2" s="1"/>
-      <c r="BG2" t="str">
-        <f>"-•-"</f>
-        <v>-•-</v>
-      </c>
-      <c r="BI2" s="2">
-        <v>1</v>
-      </c>
-      <c r="DL2" s="1"/>
-    </row>
-    <row r="3" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BD3" s="1"/>
-      <c r="BI3" s="2">
-        <v>2</v>
-      </c>
-      <c r="DL3" s="1"/>
-    </row>
-    <row r="4" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="BD4" s="1"/>
-      <c r="BI4" s="2">
-        <v>3</v>
-      </c>
-      <c r="CR4" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="CS4" s="32" t="str">
-        <f t="shared" ref="CS4:CX7" si="0">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="CT4" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CU4" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CV4" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CW4" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CX4" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CY4" s="34" t="str">
-        <f t="shared" ref="CY4:CY11" si="1">$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DD4" s="41" t="str">
-        <f t="shared" ref="DD4:DD11" si="2">$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DE4" s="32" t="str">
-        <f t="shared" ref="DE4:DI11" si="3">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="DF4" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DG4" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DH4" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DI4" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DJ4" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="DL4" s="1"/>
-    </row>
-    <row r="5" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="I5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="18"/>
-      <c r="BD5" s="1"/>
-      <c r="BI5" s="2">
-        <v>4</v>
-      </c>
-      <c r="CR5" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CS5" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="CT5" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CU5" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CV5" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CW5" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CX5" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CY5" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD5" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>-•-</v>
-      </c>
-      <c r="DJ5" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL5" s="1"/>
-    </row>
-    <row r="6" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="F6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="18"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="BD6" s="1"/>
-      <c r="BI6" s="2">
-        <v>5</v>
-      </c>
-      <c r="BX6" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="BY6" s="32" t="str">
-        <f t="shared" ref="BY6:CE6" si="4">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="BZ6" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v>----</v>
-      </c>
-      <c r="CA6" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v>----</v>
-      </c>
-      <c r="CB6" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v>----</v>
-      </c>
-      <c r="CC6" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v>----</v>
-      </c>
-      <c r="CD6" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v>----</v>
-      </c>
-      <c r="CE6" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v>----</v>
-      </c>
-      <c r="CF6" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="CR6" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CS6" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CT6" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="CU6" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CV6" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CW6" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CX6" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CY6" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD6" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE6" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DF6" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DG6" s="51" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DJ6" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL6" s="1"/>
-    </row>
-    <row r="7" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="F7" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="18"/>
-      <c r="AG7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="BD7" s="1"/>
-      <c r="BI7" s="2">
-        <v>6</v>
-      </c>
-      <c r="BX7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CF7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CR7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CS7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CT7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CU7" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="CV7" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CW7" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CX7" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>----</v>
-      </c>
-      <c r="CY7" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD7" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE7" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DF7" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DG7" s="51" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DJ7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL7" s="1"/>
-    </row>
-    <row r="8" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="F8" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="R8" s="21"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="18"/>
-      <c r="W8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="X8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD8" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="9"/>
-      <c r="BD8" s="1"/>
-      <c r="BI8" s="2">
-        <v>7</v>
-      </c>
-      <c r="BX8" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CD8" s="27" t="str">
-        <f t="shared" ref="CD8:CD27" si="5">$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="CE8" s="29"/>
-      <c r="CF8" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CJ8" s="45" t="str">
-        <f t="shared" ref="CJ8:CJ27" si="6">$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="CK8" s="32" t="str">
-        <f t="shared" ref="CK8:CX22" si="7">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="CL8" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CM8" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CN8" s="52" t="str">
-        <f t="shared" ref="CN8:CP10" si="8">$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="CO8" s="52" t="str">
-        <f t="shared" si="8"/>
-        <v>-•-</v>
-      </c>
-      <c r="CP8" s="51" t="str">
-        <f t="shared" si="8"/>
-        <v>-•-</v>
-      </c>
-      <c r="CR8" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CS8" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CT8" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CU8" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CW8" s="50" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="CX8" s="32" t="str">
-        <f>$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="CY8" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD8" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE8" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DF8" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DG8" s="51" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DJ8" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL8" s="1"/>
-    </row>
-    <row r="9" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="F9" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="18"/>
-      <c r="W9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD9" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AM9" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO9" s="9"/>
-      <c r="BD9" s="1"/>
-      <c r="BI9" s="2">
-        <v>8</v>
-      </c>
-      <c r="BX9" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="BZ9" s="28" t="str">
-        <f t="shared" ref="BZ9:BZ14" si="9">$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="CB9" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="CC9" s="32" t="str">
-        <f t="shared" ref="CC9" si="10">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="CD9" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CJ9" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK9" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CL9" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CM9" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CN9" s="52" t="str">
-        <f t="shared" si="8"/>
-        <v>-•-</v>
-      </c>
-      <c r="CO9" s="52" t="str">
-        <f t="shared" si="8"/>
-        <v>-•-</v>
-      </c>
-      <c r="CP9" s="51" t="str">
-        <f t="shared" si="8"/>
-        <v>-•-</v>
-      </c>
-      <c r="CR9" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CS9" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CT9" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CU9" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CW9" s="50" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="CX9" s="32" t="str">
-        <f t="shared" ref="CX9:CX10" si="11">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="CY9" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD9" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE9" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DF9" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DG9" s="51" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DJ9" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL9" s="1"/>
-    </row>
-    <row r="10" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="R10" s="21"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="18"/>
-      <c r="W10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="X10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD10" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="22"/>
-      <c r="AM10" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="BD10" s="1"/>
-      <c r="BI10" s="2">
-        <v>9</v>
-      </c>
-      <c r="BX10" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="BY10" s="32" t="str">
-        <f t="shared" ref="BY10" si="12">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="BZ10" s="47" t="str">
-        <f t="shared" si="9"/>
-        <v>-•-</v>
-      </c>
-      <c r="CB10" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CD10" s="45" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE10" s="32" t="str">
-        <f t="shared" ref="CE10" si="13">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="CF10" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="CJ10" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK10" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CL10" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CM10" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CN10" s="52" t="str">
-        <f t="shared" si="8"/>
-        <v>-•-</v>
-      </c>
-      <c r="CO10" s="52" t="str">
-        <f t="shared" si="8"/>
-        <v>-•-</v>
-      </c>
-      <c r="CP10" s="51" t="str">
-        <f t="shared" si="8"/>
-        <v>-•-</v>
-      </c>
-      <c r="CR10" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CS10" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CT10" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CU10" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CW10" s="50" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="CX10" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v>----</v>
-      </c>
-      <c r="CY10" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD10" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE10" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DF10" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DG10" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="DJ10" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL10" s="1"/>
-    </row>
-    <row r="11" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="21"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD11" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK11" s="22"/>
-      <c r="AL11" s="22"/>
-      <c r="AM11" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD11" s="1"/>
-      <c r="BI11" s="2">
-        <v>10</v>
-      </c>
-      <c r="BZ11" s="43" t="str">
-        <f t="shared" si="9"/>
-        <v>-•-</v>
-      </c>
-      <c r="CA11" s="32" t="str">
-        <f t="shared" ref="CA11:CC13" si="14">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="CB11" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="CD11" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE11" s="29"/>
-      <c r="CJ11" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK11" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CL11" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CM11" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CN11" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CO11" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CP11" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CQ11" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CR11" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="CS11" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CT11" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CU11" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CY11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD11" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE11" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>----</v>
-      </c>
-      <c r="DF11" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="DG11" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DJ11" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL11" s="1"/>
-    </row>
-    <row r="12" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="59"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD12" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH12" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD12" s="1"/>
-      <c r="BI12" s="2">
-        <v>11</v>
-      </c>
-      <c r="BZ12" s="43" t="str">
-        <f t="shared" si="9"/>
-        <v>-•-</v>
-      </c>
-      <c r="CA12" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v>----</v>
-      </c>
-      <c r="CB12" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v>----</v>
-      </c>
-      <c r="CC12" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v>----</v>
-      </c>
-      <c r="CD12" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE12" s="29"/>
-      <c r="CJ12" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK12" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CL12" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CM12" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CN12" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CO12" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CP12" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CQ12" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CR12" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CS12" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="CT12" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CU12" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DF12" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DG12" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DJ12" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL12" s="1"/>
-    </row>
-    <row r="13" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="R13" s="21"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD13" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH13" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="26"/>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD13" s="1"/>
-      <c r="BI13" s="2">
-        <v>12</v>
-      </c>
-      <c r="BZ13" s="43" t="str">
-        <f t="shared" si="9"/>
-        <v>-•-</v>
-      </c>
-      <c r="CA13" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v>----</v>
-      </c>
-      <c r="CB13" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v>----</v>
-      </c>
-      <c r="CC13" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v>----</v>
-      </c>
-      <c r="CD13" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE13" s="29"/>
-      <c r="CJ13" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK13" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CL13" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CM13" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CN13" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CO13" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CP13" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CQ13" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CR13" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CS13" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CT13" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="CU13" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DE13" s="54"/>
-      <c r="DF13" s="55" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DG13" s="55" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DJ13" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL13" s="1"/>
-    </row>
-    <row r="14" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="F14" s="74"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD14" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD14" s="1"/>
-      <c r="BI14" s="2">
-        <v>13</v>
-      </c>
-      <c r="BZ14" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v>-•-</v>
-      </c>
-      <c r="CD14" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE14" s="29"/>
-      <c r="CJ14" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK14" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CL14" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CM14" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CN14" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CO14" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CP14" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CQ14" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CR14" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CS14" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CT14" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CU14" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="DJ14" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL14" s="1"/>
-    </row>
-    <row r="15" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="AC15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD15" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE15" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY15" s="68"/>
-      <c r="BD15" s="1"/>
-      <c r="BI15" s="2">
-        <v>14</v>
-      </c>
-      <c r="BN15" s="57"/>
-      <c r="BO15" s="57"/>
-      <c r="CD15" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE15" s="29"/>
-      <c r="CJ15" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="DJ15" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL15" s="1"/>
-    </row>
-    <row r="16" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="AC16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD16" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE16" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX16" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY16" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD16" s="1"/>
-      <c r="BI16" s="2">
-        <v>15</v>
-      </c>
-      <c r="BM16" s="54"/>
-      <c r="BN16" s="56" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="BO16" s="56" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="CD16" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE16" s="29"/>
-      <c r="CJ16" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="DJ16" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL16" s="1"/>
-    </row>
-    <row r="17" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="AC17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD17" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE17" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW17" s="54"/>
-      <c r="AX17" s="64"/>
-      <c r="AY17" s="67"/>
-      <c r="BD17" s="1"/>
-      <c r="BI17" s="2">
-        <v>16</v>
-      </c>
-      <c r="BN17" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="BO17" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CD17" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE17" s="29"/>
-      <c r="CJ17" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CN17" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="CO17" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CP17" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CQ17" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CR17" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CS17" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CT17" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CU17" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CV17" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CW17" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CX17" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CY17" s="34" t="str">
-        <f t="shared" ref="CY17:CY24" si="15">$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DD17" s="41" t="str">
-        <f t="shared" ref="DD17:DD24" si="16">$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DE17" s="32" t="str">
-        <f t="shared" ref="DE17:DI24" si="17">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="DF17" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DG17" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DH17" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DI17" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DJ17" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL17" s="1"/>
-    </row>
-    <row r="18" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="I18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="18"/>
-      <c r="AC18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD18" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE18" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW18" s="58"/>
-      <c r="AX18" s="64"/>
-      <c r="AY18" s="66"/>
-      <c r="BD18" s="1"/>
-      <c r="BI18" s="2">
-        <v>17</v>
-      </c>
-      <c r="BN18" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="BO18" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CD18" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE18" s="29"/>
-      <c r="CJ18" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CN18" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CO18" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="CP18" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CQ18" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CR18" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CS18" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CT18" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CU18" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CV18" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CW18" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CX18" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CY18" s="35" t="str">
-        <f t="shared" si="15"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD18" s="8" t="str">
-        <f t="shared" si="16"/>
-        <v>-•-</v>
-      </c>
-      <c r="DJ18" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL18" s="1"/>
-    </row>
-    <row r="19" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="F19" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="18"/>
-      <c r="AC19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD19" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE19" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="63"/>
-      <c r="AY19" s="66"/>
-      <c r="BD19" s="1"/>
-      <c r="BI19" s="2">
-        <v>18</v>
-      </c>
-      <c r="BN19" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="BO19" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="BP19" s="32" t="str">
-        <f>$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="BQ19" s="34" t="str">
-        <f t="shared" ref="BQ19:BQ26" si="18">$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="BV19" s="7" t="str">
-        <f t="shared" ref="BV19:BV26" si="19">$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="CD19" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE19" s="29"/>
-      <c r="CJ19" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CN19" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CO19" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CP19" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="CQ19" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CR19" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CS19" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CT19" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CU19" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CV19" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CW19" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CX19" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CY19" s="34" t="str">
-        <f t="shared" si="15"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD19" s="41" t="str">
-        <f t="shared" si="16"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE19" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DF19" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DG19" s="51" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DJ19" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL19" s="1"/>
-    </row>
-    <row r="20" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="F20" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD20" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6"/>
-      <c r="AU20" s="6"/>
-      <c r="AV20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW20" s="61"/>
-      <c r="AX20" s="61"/>
-      <c r="AY20" s="65"/>
-      <c r="BD20" s="1"/>
-      <c r="BI20" s="2">
-        <v>19</v>
-      </c>
-      <c r="BN20" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="BO20" s="32" t="str">
-        <f t="shared" ref="BO20:BP24" si="20">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="BP20" s="33" t="str">
-        <f>$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="BQ20" s="35" t="str">
-        <f t="shared" si="18"/>
-        <v>-•-</v>
-      </c>
-      <c r="BV20" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v>-•-</v>
-      </c>
-      <c r="BW20" s="32" t="str">
-        <f t="shared" ref="BW20:CC26" si="21">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="BX20" s="51" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="CD20" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE20" s="29"/>
-      <c r="CJ20" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK20" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CL20" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CM20" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CN20" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="CO20" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CP20" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CQ20" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="CR20" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CS20" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CT20" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CU20" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CV20" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CW20" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CX20" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CY20" s="34" t="str">
-        <f t="shared" si="15"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD20" s="41" t="str">
-        <f t="shared" si="16"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE20" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DF20" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DG20" s="51" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DJ20" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL20" s="1"/>
-    </row>
-    <row r="21" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="F21" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="V21" s="21"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD21" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO21" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-      <c r="AT21" s="6"/>
-      <c r="AU21" s="6"/>
-      <c r="AV21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10"/>
-      <c r="AY21" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD21" s="1"/>
-      <c r="BI21" s="2">
-        <v>20</v>
-      </c>
-      <c r="BN21" s="50" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="BO21" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v>----</v>
-      </c>
-      <c r="BP21" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v>----</v>
-      </c>
-      <c r="BQ21" s="34" t="str">
-        <f t="shared" si="18"/>
-        <v>-•-</v>
-      </c>
-      <c r="BV21" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v>-•-</v>
-      </c>
-      <c r="BW21" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="BX21" s="51" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="CD21" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE21" s="29"/>
-      <c r="CJ21" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK21" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CL21" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CM21" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CN21" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CO21" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="CP21" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CQ21" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CW21" s="31" t="str">
-        <f>$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="CX21" s="32" t="str">
-        <f>$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="CY21" s="34" t="str">
-        <f t="shared" si="15"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD21" s="41" t="str">
-        <f t="shared" si="16"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE21" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DF21" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DG21" s="51" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DJ21" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL21" s="1"/>
-    </row>
-    <row r="22" spans="1:116" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="F22" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="V22" s="21"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD22" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO22" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW22" s="10"/>
-      <c r="AX22" s="10"/>
-      <c r="AY22" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD22" s="1"/>
-      <c r="BI22" s="2">
-        <v>21</v>
-      </c>
-      <c r="BN22" s="50" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="BO22" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v>----</v>
-      </c>
-      <c r="BP22" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v>----</v>
-      </c>
-      <c r="BQ22" s="34" t="str">
-        <f t="shared" si="18"/>
-        <v>-•-</v>
-      </c>
-      <c r="BV22" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v>-•-</v>
-      </c>
-      <c r="BW22" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="BX22" s="51" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="CD22" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE22" s="29"/>
-      <c r="CJ22" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK22" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CL22" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CM22" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CN22" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CO22" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>----</v>
-      </c>
-      <c r="CP22" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="CQ22" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CW22" s="53" t="str">
-        <f t="shared" ref="CW22:CX23" si="22">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="CX22" s="33" t="str">
-        <f t="shared" si="22"/>
-        <v>----</v>
-      </c>
-      <c r="CY22" s="35" t="str">
-        <f t="shared" si="15"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD22" s="41" t="str">
-        <f t="shared" si="16"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE22" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DF22" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DG22" s="51" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DJ22" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL22" s="1"/>
-    </row>
-    <row r="23" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" s="11"/>
-      <c r="P23" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD23" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="21"/>
-      <c r="AN23" s="21"/>
-      <c r="AO23" s="21"/>
-      <c r="AP23" s="21"/>
-      <c r="AQ23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW23" s="10"/>
-      <c r="AX23" s="10"/>
-      <c r="AY23" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD23" s="1"/>
-      <c r="BI23" s="2">
-        <v>22</v>
-      </c>
-      <c r="BN23" s="50" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="BO23" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v>----</v>
-      </c>
-      <c r="BP23" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v>----</v>
-      </c>
-      <c r="BQ23" s="34" t="str">
-        <f t="shared" si="18"/>
-        <v>-•-</v>
-      </c>
-      <c r="BV23" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v>-•-</v>
-      </c>
-      <c r="BW23" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="BX23" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="BY23" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="BZ23" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CA23" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CB23" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CC23" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CD23" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE23" s="29"/>
-      <c r="CJ23" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK23" s="32" t="str">
-        <f t="shared" ref="CK23:CP23" si="23">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="CL23" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>----</v>
-      </c>
-      <c r="CM23" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>----</v>
-      </c>
-      <c r="CN23" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>----</v>
-      </c>
-      <c r="CO23" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>----</v>
-      </c>
-      <c r="CP23" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>----</v>
-      </c>
-      <c r="CQ23" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="CW23" s="31" t="str">
-        <f t="shared" si="22"/>
-        <v>----</v>
-      </c>
-      <c r="CX23" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>----</v>
-      </c>
-      <c r="CY23" s="34" t="str">
-        <f t="shared" si="15"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD23" s="41" t="str">
-        <f t="shared" si="16"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE23" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DF23" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DG23" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="DJ23" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL23" s="1"/>
-    </row>
-    <row r="24" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD24" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="20"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="20"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="6"/>
-      <c r="AT24" s="6"/>
-      <c r="AU24" s="6"/>
-      <c r="AV24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW24" s="10"/>
-      <c r="AX24" s="10"/>
-      <c r="AY24" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD24" s="1"/>
-      <c r="BI24" s="2">
-        <v>23</v>
-      </c>
-      <c r="BN24" s="50" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="BO24" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v>----</v>
-      </c>
-      <c r="BP24" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v>----</v>
-      </c>
-      <c r="BQ24" s="34" t="str">
-        <f t="shared" si="18"/>
-        <v>-•-</v>
-      </c>
-      <c r="BV24" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v>-•-</v>
-      </c>
-      <c r="BW24" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="BX24" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="BY24" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="BZ24" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CA24" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CB24" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CC24" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CD24" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE24" s="29"/>
-      <c r="CJ24" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CY24" s="8" t="str">
-        <f t="shared" si="15"/>
-        <v>-•-</v>
-      </c>
-      <c r="DD24" s="41" t="str">
-        <f t="shared" si="16"/>
-        <v>-•-</v>
-      </c>
-      <c r="DE24" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>----</v>
-      </c>
-      <c r="DF24" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="DG24" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DJ24" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL24" s="1"/>
-    </row>
-    <row r="25" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="59"/>
-      <c r="AC25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD25" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE25" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR25" s="6"/>
-      <c r="AS25" s="6"/>
-      <c r="AT25" s="6"/>
-      <c r="AU25" s="6"/>
-      <c r="AV25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD25" s="1"/>
-      <c r="BI25" s="2">
-        <v>24</v>
-      </c>
-      <c r="BQ25" s="30" t="str">
-        <f t="shared" si="18"/>
-        <v>-•-</v>
-      </c>
-      <c r="BV25" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v>-•-</v>
-      </c>
-      <c r="BW25" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="BX25" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="BY25" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="BZ25" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CA25" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CB25" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CC25" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CD25" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE25" s="29"/>
-      <c r="CJ25" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="DF25" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DG25" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DJ25" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL25" s="1"/>
-    </row>
-    <row r="26" spans="1:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="18"/>
-      <c r="AM26" s="18"/>
-      <c r="AN26" s="18"/>
-      <c r="AO26" s="18"/>
-      <c r="AP26" s="18"/>
-      <c r="AQ26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR26" s="6"/>
-      <c r="AS26" s="6"/>
-      <c r="AT26" s="6"/>
-      <c r="AU26" s="6"/>
-      <c r="AV26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD26" s="1"/>
-      <c r="BI26" s="2">
-        <v>25</v>
-      </c>
-      <c r="BQ26" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>-•-</v>
-      </c>
-      <c r="BV26" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v>-•-</v>
-      </c>
-      <c r="BW26" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="BX26" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="BY26" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="BZ26" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CA26" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CB26" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CC26" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>----</v>
-      </c>
-      <c r="CD26" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE26" s="29"/>
-      <c r="CJ26" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CK26" s="32" t="str">
-        <f t="shared" ref="CK26" si="24">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="CL26" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="DE26" s="54"/>
-      <c r="DF26" s="55" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DG26" s="55" t="str">
-        <f>$BG$2</f>
-        <v>-•-</v>
-      </c>
-      <c r="DJ26" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL26" s="1"/>
-    </row>
-    <row r="27" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AC27" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV27" s="22"/>
-      <c r="BD27" s="1"/>
-      <c r="BI27" s="2">
-        <v>26</v>
-      </c>
-      <c r="BQ27" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CD27" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>-•-</v>
-      </c>
-      <c r="CE27" s="29"/>
-      <c r="CJ27" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>-•-</v>
-      </c>
-      <c r="CL27" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DJ27" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL27" s="1"/>
-    </row>
-    <row r="28" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="BD28" s="1"/>
-      <c r="BI28" s="2">
-        <v>27</v>
-      </c>
-      <c r="BQ28" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="CL28" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DJ28" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL28" s="1"/>
-    </row>
-    <row r="29" spans="1:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="22"/>
-      <c r="AI29" s="22"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="22"/>
-      <c r="AL29" s="22"/>
-      <c r="AM29" s="22"/>
-      <c r="AN29" s="22"/>
-      <c r="AO29" s="22"/>
-      <c r="AP29" s="22"/>
-      <c r="AQ29" s="22"/>
-      <c r="AR29" s="22"/>
-      <c r="AS29" s="22"/>
-      <c r="AT29" s="22"/>
-      <c r="AU29" s="22"/>
-      <c r="AV29" s="22"/>
-      <c r="BD29" s="1"/>
-      <c r="BI29" s="2">
-        <v>28</v>
-      </c>
-      <c r="BQ29" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="BR29" s="32" t="str">
-        <f t="shared" ref="BR29:DI29" si="25">$BG$1</f>
-        <v>----</v>
-      </c>
-      <c r="BS29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="BT29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="BU29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="BV29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="BW29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="BX29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="BY29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="BZ29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CA29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CB29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CC29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CD29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CE29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CF29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CG29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CH29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CI29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CJ29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CK29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CL29" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="CM29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CN29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CO29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CP29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CQ29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CR29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CS29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CT29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CU29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CV29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CW29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CX29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CY29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="CZ29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="DA29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="DB29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="DC29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="DD29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="DE29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="DF29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="DG29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="DH29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="DI29" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>----</v>
-      </c>
-      <c r="DJ29" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="DL29" s="1"/>
-    </row>
-    <row r="30" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="BD30" s="1"/>
-      <c r="BI30" s="2">
-        <v>29</v>
-      </c>
-      <c r="DL30" s="1"/>
-    </row>
-    <row r="31" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="BD31" s="1"/>
-      <c r="BI31" s="2">
-        <v>30</v>
-      </c>
-      <c r="DL31" s="1"/>
-    </row>
-    <row r="32" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="BD32" s="1"/>
-      <c r="BI32" s="2">
-        <v>31</v>
-      </c>
-      <c r="DL32" s="1"/>
-    </row>
-    <row r="33" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="BD33" s="1"/>
-      <c r="BI33" s="2">
-        <v>32</v>
-      </c>
-      <c r="DL33" s="1"/>
-    </row>
-    <row r="34" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="BD34" s="1"/>
-      <c r="BI34" s="2">
-        <v>33</v>
-      </c>
-      <c r="DL34" s="1"/>
-    </row>
-    <row r="35" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="BD35" s="1"/>
-      <c r="BI35" s="2">
-        <v>34</v>
-      </c>
-      <c r="DL35" s="1"/>
-    </row>
-    <row r="36" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
-      <c r="AU36" s="1"/>
-      <c r="AV36" s="1"/>
-      <c r="AW36" s="1"/>
-      <c r="AX36" s="1"/>
-      <c r="AY36" s="1"/>
-      <c r="AZ36" s="1"/>
-      <c r="BA36" s="1"/>
-      <c r="BB36" s="1"/>
-      <c r="BC36" s="1"/>
-      <c r="BD36" s="1"/>
-      <c r="BI36" s="1"/>
-      <c r="BJ36" s="1"/>
-      <c r="BK36" s="1"/>
-      <c r="BL36" s="1"/>
-      <c r="BM36" s="1"/>
-      <c r="BN36" s="1"/>
-      <c r="BO36" s="1"/>
-      <c r="BP36" s="1"/>
-      <c r="BQ36" s="1"/>
-      <c r="BR36" s="1"/>
-      <c r="BS36" s="1"/>
-      <c r="BT36" s="1"/>
-      <c r="BU36" s="1"/>
-      <c r="BV36" s="1"/>
-      <c r="BW36" s="1"/>
-      <c r="BX36" s="1"/>
-      <c r="BY36" s="1"/>
-      <c r="BZ36" s="1"/>
-      <c r="CA36" s="1"/>
-      <c r="CB36" s="1"/>
-      <c r="CC36" s="1"/>
-      <c r="CD36" s="1"/>
-      <c r="CE36" s="1"/>
-      <c r="CF36" s="1"/>
-      <c r="CG36" s="1"/>
-      <c r="CH36" s="1"/>
-      <c r="CI36" s="1"/>
-      <c r="CJ36" s="1"/>
-      <c r="CK36" s="1"/>
-      <c r="CL36" s="1"/>
-      <c r="CM36" s="1"/>
-      <c r="CN36" s="1"/>
-      <c r="CO36" s="1"/>
-      <c r="CP36" s="1"/>
-      <c r="CQ36" s="1"/>
-      <c r="CR36" s="1"/>
-      <c r="CS36" s="1"/>
-      <c r="CT36" s="1"/>
-      <c r="CU36" s="1"/>
-      <c r="CV36" s="1"/>
-      <c r="CW36" s="1"/>
-      <c r="CX36" s="1"/>
-      <c r="CY36" s="1"/>
-      <c r="CZ36" s="1"/>
-      <c r="DA36" s="1"/>
-      <c r="DB36" s="1"/>
-      <c r="DC36" s="1"/>
-      <c r="DD36" s="1"/>
-      <c r="DE36" s="1"/>
-      <c r="DF36" s="1"/>
-      <c r="DG36" s="1"/>
-      <c r="DH36" s="1"/>
-      <c r="DI36" s="1"/>
-      <c r="DJ36" s="1"/>
-      <c r="DK36" s="1"/>
-      <c r="DL36" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B6A2BE-FF53-4375-A65D-48A17D9B1D83}">
   <dimension ref="A1:DL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="BF5" sqref="BF5"/>
     </sheetView>
   </sheetViews>
